--- a/2_design/asim/artifacts/testing/analyze-item.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6032664D-2C2C-4FE6-81B2-ABB134851B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBE85EF-6664-42DB-851A-D37D7546E695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>CjacMD</t>
-  </si>
-  <si>
     <t>TMJ</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>I-R</t>
+  </si>
+  <si>
+    <t>MMD</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
                   <c:v>PIP</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>CjacMD</c:v>
+                  <c:v>MMD</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>TMJ</c:v>
@@ -420,7 +420,7 @@
                   <c:v>0.82228888888888885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73085</c:v>
+                  <c:v>0.73526000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.78458888888888889</c:v>
@@ -432,7 +432,7 @@
                   <c:v>0.78242222222222213</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72994999999999999</c:v>
+                  <c:v>0.7419</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.75835555555555567</c:v>
@@ -444,7 +444,7 @@
                   <c:v>0.75551111111111124</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.72455000000000003</c:v>
+                  <c:v>0.73184000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.7538111111111111</c:v>
@@ -456,22 +456,22 @@
                   <c:v>0.76703333333333334</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.79089999999999994</c:v>
+                  <c:v>0.79879999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.73239999999999994</c:v>
+                  <c:v>0.73680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.78405000000000002</c:v>
+                  <c:v>0.79185000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.73134999999999994</c:v>
+                  <c:v>0.73367499999999986</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.73180000000000001</c:v>
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.73964999999999992</c:v>
+                  <c:v>0.74435000000000007</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.76255555555555554</c:v>
@@ -486,22 +486,22 @@
                   <c:v>0.75366666666666671</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.74249999999999994</c:v>
+                  <c:v>0.74643999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.73895</c:v>
+                  <c:v>0.74275999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7277499999999999</c:v>
+                  <c:v>0.73233999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7249000000000001</c:v>
+                  <c:v>0.73004000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.71799999999999997</c:v>
+                  <c:v>0.72496000000000005</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.72199999999999998</c:v>
+                  <c:v>0.72736000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,7 +788,7 @@
                   <c:v>PIP</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>CjacMD</c:v>
+                  <c:v>MMD</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>TMJ</c:v>
@@ -1205,10 +1205,10 @@
                   <c:v>0.7538111111111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84370000000000001</c:v>
+                  <c:v>0.85774000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56420000000000003</c:v>
+                  <c:v>0.57950000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.9651777777777778</c:v>
@@ -1296,10 +1296,10 @@
                   <c:v>0.75438888888888878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85454999999999992</c:v>
+                  <c:v>0.86739999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57435000000000003</c:v>
+                  <c:v>0.58801999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.96516666666666662</c:v>
@@ -1384,13 +1384,13 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.74249999999999994</c:v>
+                  <c:v>0.74643999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88595000000000002</c:v>
+                  <c:v>0.89734000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59715000000000007</c:v>
+                  <c:v>0.60987999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.9693222222222222</c:v>
@@ -3740,8 +3740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F415299B-7611-4776-90FA-43332039FA40}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>0.72929999999999995</v>
@@ -3932,16 +3932,22 @@
       <c r="C6" s="1">
         <v>0.73240000000000005</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="1">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.7379</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.74339999999999995</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>0.73085</v>
+        <v>0.73526000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4054,7 +4060,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>0.72629999999999995</v>
@@ -4062,16 +4068,22 @@
       <c r="C10" s="1">
         <v>0.73360000000000003</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.74929999999999997</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.76049999999999995</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>0.72994999999999999</v>
+        <v>0.7419</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4192,16 +4204,22 @@
       <c r="C14" s="1">
         <v>0.72709999999999997</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="D14" s="1">
+        <v>0.72860000000000003</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.73340000000000005</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.74809999999999999</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1">
         <f t="shared" si="0"/>
-        <v>0.72455000000000003</v>
+        <v>0.73184000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4322,16 +4340,22 @@
       <c r="C18" s="1">
         <v>0.79310000000000003</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="D18" s="1">
+        <v>0.79879999999999995</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.80989999999999995</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>0.79089999999999994</v>
+        <v>0.79879999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4344,21 +4368,27 @@
       <c r="C19" s="1">
         <v>0.73370000000000002</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="D19" s="1">
+        <v>0.7349</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.745</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>0.73239999999999994</v>
+        <v>0.73680000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>0.7802</v>
@@ -4366,8 +4396,12 @@
       <c r="C20" s="1">
         <v>0.78790000000000004</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.80579999999999996</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4375,12 +4409,12 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>0.78405000000000002</v>
+        <v>0.79185000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>0.7298</v>
@@ -4388,8 +4422,12 @@
       <c r="C21" s="1">
         <v>0.7329</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.73829999999999996</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4397,12 +4435,12 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>0.73134999999999994</v>
+        <v>0.73367499999999986</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>0.73029999999999995</v>
@@ -4410,8 +4448,12 @@
       <c r="C22" s="1">
         <v>0.73329999999999995</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1">
+        <v>0.7339</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.73850000000000005</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4419,12 +4461,12 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.73180000000000001</v>
+        <v>0.73399999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>0.73709999999999998</v>
@@ -4432,8 +4474,12 @@
       <c r="C23" s="1">
         <v>0.74219999999999997</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.75260000000000005</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -4441,7 +4487,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.73964999999999992</v>
+        <v>0.74435000000000007</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -4590,7 +4636,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>0.74119999999999997</v>
@@ -4598,21 +4644,27 @@
       <c r="C28" s="1">
         <v>0.74380000000000002</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="D28" s="1">
+        <v>0.74460000000000004</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.74890000000000001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.75370000000000004</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.74249999999999994</v>
+        <v>0.74643999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>0.73760000000000003</v>
@@ -4620,21 +4672,27 @@
       <c r="C29" s="1">
         <v>0.74029999999999996</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="D29" s="1">
+        <v>0.74080000000000001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.74509999999999998</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.75</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.73895</v>
+        <v>0.74275999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>0.72619999999999996</v>
@@ -4642,16 +4700,22 @@
       <c r="C30" s="1">
         <v>0.72929999999999995</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="D30" s="1">
+        <v>0.73019999999999996</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.7349</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.74109999999999998</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.7277499999999999</v>
+        <v>0.73233999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -4664,16 +4728,22 @@
       <c r="C31" s="1">
         <v>0.72650000000000003</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="D31" s="1">
+        <v>0.7278</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.74</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.7249000000000001</v>
+        <v>0.73004000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -4686,21 +4756,27 @@
       <c r="C32" s="1">
         <v>0.72</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="D32" s="1">
+        <v>0.72240000000000004</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.73799999999999999</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.71799999999999997</v>
+        <v>0.72496000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>0.72030000000000005</v>
@@ -4708,16 +4784,22 @@
       <c r="C33" s="1">
         <v>0.72370000000000001</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="D33" s="1">
+        <v>0.72509999999999997</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.73029999999999995</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.73740000000000006</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>0.72199999999999998</v>
+        <v>0.72736000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4731,8 +4813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845ED3B-1C35-4974-BD89-89002EC8961B}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4766,7 +4848,7 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4779,16 +4861,22 @@
       <c r="C2" s="1">
         <v>0.89359999999999995</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="1">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.91659999999999997</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1">
         <f>AVERAGE(B2:J2)</f>
-        <v>0.88894999999999991</v>
+        <v>0.8996599999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4801,16 +4889,22 @@
       <c r="C3" s="1">
         <v>0.86980000000000002</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="1">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.89570000000000005</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
-        <v>0.86450000000000005</v>
+        <v>0.87646000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4823,16 +4917,22 @@
       <c r="C4" s="1">
         <v>0.90159999999999996</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.92569999999999997</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.94410000000000005</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>0.89515</v>
+        <v>0.91457999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4845,21 +4945,27 @@
       <c r="C5" s="1">
         <v>0.99719999999999998</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1">
+        <v>1.0086999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.0202</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0370999999999999</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>0.99024999999999996</v>
+        <v>1.0092999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>0.85360000000000003</v>
@@ -4867,16 +4973,22 @@
       <c r="C6" s="1">
         <v>0.86499999999999999</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="1">
+        <v>0.87029999999999996</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.89229999999999998</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>0.85929999999999995</v>
+        <v>0.87203999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4889,16 +5001,22 @@
       <c r="C7" s="1">
         <v>0.90669999999999995</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.96089999999999998</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>0.89510000000000001</v>
+        <v>0.92253999999999992</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4911,16 +5029,22 @@
       <c r="C8" s="1">
         <v>0.87760000000000005</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="1">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.92730000000000001</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>0.87185000000000001</v>
+        <v>0.89336000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4933,21 +5057,27 @@
       <c r="C9" s="1">
         <v>0.90200000000000002</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="1">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.95379999999999998</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>0.89135000000000009</v>
+        <v>0.91734000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>0.84560000000000002</v>
@@ -4955,16 +5085,22 @@
       <c r="C10" s="1">
         <v>0.86509999999999998</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.90010000000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.92459999999999998</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>0.85535000000000005</v>
+        <v>0.88326000000000016</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4977,16 +5113,22 @@
       <c r="C11" s="1">
         <v>0.86639999999999995</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="1">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.89370000000000005</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1">
         <f t="shared" si="0"/>
-        <v>0.86070000000000002</v>
+        <v>0.87344000000000011</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4999,16 +5141,22 @@
       <c r="C12" s="1">
         <v>0.89229999999999998</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="1">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.9042</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.91510000000000002</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1">
         <f t="shared" si="0"/>
-        <v>0.88759999999999994</v>
+        <v>0.89825999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5021,16 +5169,22 @@
       <c r="C13" s="1">
         <v>0.86409999999999998</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="1">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.878</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.89139999999999997</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f t="shared" si="0"/>
-        <v>0.85840000000000005</v>
+        <v>0.87112000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5043,16 +5197,22 @@
       <c r="C14" s="1">
         <v>0.85399999999999998</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="D14" s="1">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.90359999999999996</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1">
         <f t="shared" si="0"/>
-        <v>0.84694999999999998</v>
+        <v>0.86559999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5065,16 +5225,22 @@
       <c r="C15" s="1">
         <v>0.84970000000000001</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="D15" s="1">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.8649</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.88119999999999998</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1">
         <f t="shared" si="0"/>
-        <v>0.84370000000000001</v>
+        <v>0.85774000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5087,16 +5253,22 @@
       <c r="C16" s="1">
         <v>0.99099999999999999</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="1">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.0058</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.0186999999999999</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>0.98780000000000001</v>
+        <v>0.99960000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -5109,16 +5281,22 @@
       <c r="C17" s="1">
         <v>0.90269999999999995</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="D17" s="1">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.92190000000000005</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1">
         <f t="shared" si="0"/>
-        <v>0.89795000000000003</v>
+        <v>0.90690000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -5131,16 +5309,22 @@
       <c r="C18" s="1">
         <v>1.0081</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="D18" s="1">
+        <v>1.0227999999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.0323</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.0476000000000001</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>1.0006999999999999</v>
+        <v>1.0208200000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -5153,21 +5337,27 @@
       <c r="C19" s="1">
         <v>0.86719999999999997</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="D19" s="1">
+        <v>0.874</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.8821</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.89700000000000002</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>0.86194999999999999</v>
+        <v>0.87539999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>0.98350000000000004</v>
@@ -5175,8 +5365,12 @@
       <c r="C20" s="1">
         <v>1.0058</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1">
+        <v>1.0226999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.0526</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -5184,12 +5378,12 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>0.99465000000000003</v>
+        <v>1.0161500000000001</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>0.85470000000000002</v>
@@ -5197,8 +5391,12 @@
       <c r="C21" s="1">
         <v>0.86599999999999999</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1">
+        <v>0.87129999999999996</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.88</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5206,12 +5404,12 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>0.86034999999999995</v>
+        <v>0.86799999999999988</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>0.85650000000000004</v>
@@ -5219,8 +5417,12 @@
       <c r="C22" s="1">
         <v>0.86719999999999997</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.88049999999999995</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5228,12 +5430,12 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.86185</v>
+        <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>0.86890000000000001</v>
@@ -5241,8 +5443,12 @@
       <c r="C23" s="1">
         <v>0.88319999999999999</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.90610000000000002</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -5250,7 +5456,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.87605</v>
+        <v>0.88772499999999999</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -5263,16 +5469,22 @@
       <c r="C24" s="1">
         <v>0.88729999999999998</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="D24" s="1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.91090000000000004</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>0.88264999999999993</v>
+        <v>0.89354</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -5285,16 +5497,22 @@
       <c r="C25" s="1">
         <v>0.86019999999999996</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="D25" s="1">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.87429999999999997</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.88800000000000001</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>0.85454999999999992</v>
+        <v>0.86739999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -5307,16 +5525,22 @@
       <c r="C26" s="1">
         <v>0.87870000000000004</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="D26" s="1">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.91820000000000002</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>0.87345000000000006</v>
+        <v>0.89078000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -5329,21 +5553,27 @@
       <c r="C27" s="1">
         <v>0.84009999999999996</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="D27" s="1">
+        <v>0.8498</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.88370000000000004</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>0.83379999999999999</v>
+        <v>0.85282000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>0.88080000000000003</v>
@@ -5351,21 +5581,27 @@
       <c r="C28" s="1">
         <v>0.8911</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="D28" s="1">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.91510000000000002</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.88595000000000002</v>
+        <v>0.89734000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>0.87250000000000005</v>
@@ -5373,21 +5609,27 @@
       <c r="C29" s="1">
         <v>0.88290000000000002</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="D29" s="1">
+        <v>0.8871</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.89490000000000003</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.90720000000000001</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.87770000000000004</v>
+        <v>0.88891999999999993</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>0.84650000000000003</v>
@@ -5395,16 +5637,22 @@
       <c r="C30" s="1">
         <v>0.85819999999999996</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="D30" s="1">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.88800000000000001</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.85234999999999994</v>
+        <v>0.86585999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -5417,16 +5665,22 @@
       <c r="C31" s="1">
         <v>0.8528</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="D31" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.86909999999999998</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.8871</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.84684999999999999</v>
+        <v>0.86177999999999988</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -5439,21 +5693,27 @@
       <c r="C32" s="1">
         <v>0.84099999999999997</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="D32" s="1">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.88690000000000002</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.83384999999999998</v>
+        <v>0.85350000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>0.8347</v>
@@ -5461,16 +5721,22 @@
       <c r="C33" s="1">
         <v>0.84719999999999995</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="D33" s="1">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.86429999999999996</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.88149999999999995</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>0.84094999999999998</v>
+        <v>0.85627999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -5483,8 +5749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10484FF-0F81-4946-89C5-3E5AAAADF83E}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5518,7 +5784,7 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5531,16 +5797,22 @@
       <c r="C2" s="1">
         <v>0.379</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="1">
+        <v>0.38169999999999998</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.38080000000000003</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.37759999999999999</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1">
         <f>AVERAGE(B2:J2)</f>
-        <v>0.40034999999999998</v>
+        <v>0.38815999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5553,16 +5825,22 @@
       <c r="C3" s="1">
         <v>0.39829999999999999</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="1">
+        <v>0.39979999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.39929999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.39479999999999998</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
-        <v>0.39934999999999998</v>
+        <v>0.39851999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5575,16 +5853,22 @@
       <c r="C4" s="1">
         <v>0.39300000000000002</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1">
+        <v>0.39319999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.38890000000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.37730000000000002</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>0.41359999999999997</v>
+        <v>0.39732000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5597,21 +5881,27 @@
       <c r="C5" s="1">
         <v>0.39179999999999998</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.38319999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.36720000000000003</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>0.41605000000000003</v>
+        <v>0.39439999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>0.40610000000000002</v>
@@ -5619,16 +5909,22 @@
       <c r="C6" s="1">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="1">
+        <v>0.4027</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.40189999999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.39610000000000001</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>0.40285000000000004</v>
+        <v>0.40128000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5641,16 +5937,22 @@
       <c r="C7" s="1">
         <v>0.3911</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1">
+        <v>0.39419999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.37380000000000002</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>0.41700000000000004</v>
+        <v>0.39760000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5663,16 +5965,22 @@
       <c r="C8" s="1">
         <v>0.4073</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="1">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.38929999999999998</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>0.43110000000000004</v>
+        <v>0.41288000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5685,21 +5993,27 @@
       <c r="C9" s="1">
         <v>0.39360000000000001</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="1">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.38879999999999998</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.377</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>0.41975000000000001</v>
+        <v>0.40038000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>0.43059999999999998</v>
@@ -5707,16 +6021,22 @@
       <c r="C10" s="1">
         <v>0.41959999999999997</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.40720000000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.3916</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>0.42509999999999998</v>
+        <v>0.41332000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5729,16 +6049,22 @@
       <c r="C11" s="1">
         <v>0.3992</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="1">
+        <v>0.40150000000000002</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.40079999999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.39500000000000002</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1">
         <f t="shared" si="0"/>
-        <v>0.42180000000000001</v>
+        <v>0.40818000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5751,16 +6077,22 @@
       <c r="C12" s="1">
         <v>0.37869999999999998</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="1">
+        <v>0.38190000000000002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.38109999999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.37790000000000001</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1">
         <f t="shared" si="0"/>
-        <v>0.40064999999999995</v>
+        <v>0.38843999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5773,16 +6105,22 @@
       <c r="C13" s="1">
         <v>0.39979999999999999</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="1">
+        <v>0.40289999999999998</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.4022</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.39629999999999999</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f t="shared" si="0"/>
-        <v>0.42274999999999996</v>
+        <v>0.40937999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5795,16 +6133,22 @@
       <c r="C14" s="1">
         <v>0.3483</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="D14" s="1">
+        <v>0.33210000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.3266</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.30259999999999998</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1">
         <f t="shared" si="0"/>
-        <v>0.34470000000000001</v>
+        <v>0.33013999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5817,16 +6161,22 @@
       <c r="C15" s="1">
         <v>0.41370000000000001</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="D15" s="1">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.4133</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.40400000000000003</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1">
         <f t="shared" si="0"/>
-        <v>0.43579999999999997</v>
+        <v>0.42049999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5839,16 +6189,22 @@
       <c r="C16" s="1">
         <v>0.35570000000000002</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="1">
+        <v>0.35460000000000003</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.3548</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.34570000000000001</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>0.37675000000000003</v>
+        <v>0.36172000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -5861,16 +6217,22 @@
       <c r="C17" s="1">
         <v>0.36830000000000002</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="D17" s="1">
+        <v>0.37109999999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.37380000000000002</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.36980000000000002</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1">
         <f t="shared" si="0"/>
-        <v>0.39139999999999997</v>
+        <v>0.3795</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -5883,16 +6245,22 @@
       <c r="C18" s="1">
         <v>0.39800000000000002</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="D18" s="1">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.38940000000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.37119999999999997</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>0.40234999999999999</v>
+        <v>0.39225999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -5905,21 +6273,27 @@
       <c r="C19" s="1">
         <v>0.40500000000000003</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="D19" s="1">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.3982</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>0.40605000000000002</v>
+        <v>0.40406000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>0.35470000000000002</v>
@@ -5927,8 +6301,12 @@
       <c r="C20" s="1">
         <v>0.34689999999999999</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1">
+        <v>0.34439999999999998</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.33579999999999999</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -5936,12 +6314,12 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>0.3508</v>
+        <v>0.34545000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>0.40450000000000003</v>
@@ -5949,8 +6327,12 @@
       <c r="C21" s="1">
         <v>0.39939999999999998</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1">
+        <v>0.40179999999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.40100000000000002</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5958,12 +6340,12 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>0.40195000000000003</v>
+        <v>0.401675</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>0.4012</v>
@@ -5971,8 +6353,12 @@
       <c r="C22" s="1">
         <v>0.39879999999999999</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1">
+        <v>0.40079999999999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.4002</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5980,12 +6366,12 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.40024999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>0.40639999999999998</v>
@@ -5993,8 +6379,12 @@
       <c r="C23" s="1">
         <v>0.39579999999999999</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>0.39929999999999999</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.39129999999999998</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -6002,7 +6392,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.40110000000000001</v>
+        <v>0.3982</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -6015,16 +6405,22 @@
       <c r="C24" s="1">
         <v>0.38109999999999999</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="D24" s="1">
+        <v>0.3841</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.38350000000000001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.38</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>0.40300000000000002</v>
+        <v>0.39072000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -6037,16 +6433,22 @@
       <c r="C25" s="1">
         <v>0.40310000000000001</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="D25" s="1">
+        <v>0.40510000000000002</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.40489999999999998</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.39860000000000001</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>0.42564999999999997</v>
+        <v>0.41197999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -6059,16 +6461,22 @@
       <c r="C26" s="1">
         <v>0.38900000000000001</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="D26" s="1">
+        <v>0.38650000000000001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.38250000000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.37069999999999997</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>0.41054999999999997</v>
+        <v>0.39216000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -6081,21 +6489,27 @@
       <c r="C27" s="1">
         <v>0.42020000000000002</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="D27" s="1">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.41210000000000002</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.39679999999999999</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>0.44290000000000002</v>
+        <v>0.42227999999999993</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>0.42459999999999998</v>
@@ -6103,21 +6517,27 @@
       <c r="C28" s="1">
         <v>0.38109999999999999</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="D28" s="1">
+        <v>0.3836</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.38219999999999998</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.37909999999999999</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.40284999999999999</v>
+        <v>0.39011999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>0.43209999999999998</v>
@@ -6125,21 +6545,27 @@
       <c r="C29" s="1">
         <v>0.38950000000000001</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="D29" s="1">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.3916</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.38729999999999998</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.4108</v>
+        <v>0.39839999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>0.41320000000000001</v>
@@ -6147,16 +6573,22 @@
       <c r="C30" s="1">
         <v>0.40720000000000001</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="D30" s="1">
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.4078</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.40029999999999999</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.41020000000000001</v>
+        <v>0.40734000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -6169,16 +6601,22 @@
       <c r="C31" s="1">
         <v>0.41520000000000001</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="D31" s="1">
+        <v>0.4128</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.41170000000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.40150000000000002</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.41654999999999998</v>
+        <v>0.41181999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -6191,21 +6629,27 @@
       <c r="C32" s="1">
         <v>0.42509999999999998</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="D32" s="1">
+        <v>0.41639999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.4143</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.39900000000000002</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.42779999999999996</v>
+        <v>0.41705999999999993</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>0.42370000000000002</v>
@@ -6213,16 +6657,22 @@
       <c r="C33" s="1">
         <v>0.41360000000000002</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="D33" s="1">
+        <v>0.4128</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.4123</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.40229999999999999</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>0.41865000000000002</v>
+        <v>0.41293999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6235,8 +6685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2A596-55B6-400A-BEAB-8F453735749D}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6270,7 +6720,7 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6283,16 +6733,22 @@
       <c r="C2" s="1">
         <v>0.3659</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="1">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.24629999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.18740000000000001</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1">
         <f>AVERAGE(B2:J2)</f>
-        <v>0.26114999999999999</v>
+        <v>0.28500000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6305,16 +6761,22 @@
       <c r="C3" s="1">
         <v>0.44190000000000002</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="1">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.3513</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.21129999999999999</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
-        <v>0.3135</v>
+        <v>0.34492</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6327,16 +6789,22 @@
       <c r="C4" s="1">
         <v>0.39750000000000002</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1">
+        <v>0.49009999999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.19059999999999999</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>0.31685000000000002</v>
+        <v>0.30550000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6349,21 +6817,27 @@
       <c r="C5" s="1">
         <v>0.40360000000000001</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1">
+        <v>0.50560000000000005</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.37569999999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.19850000000000001</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>0.32379999999999998</v>
+        <v>0.34547999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>0.1666</v>
@@ -6371,16 +6845,22 @@
       <c r="C6" s="1">
         <v>0.25390000000000001</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="1">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.30209999999999998</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>0.21024999999999999</v>
+        <v>0.25351999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6393,16 +6873,22 @@
       <c r="C7" s="1">
         <v>0.4153</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1">
+        <v>0.50760000000000005</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.22040000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.19839999999999999</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>0.34204999999999997</v>
+        <v>0.32209999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6415,16 +6901,22 @@
       <c r="C8" s="1">
         <v>0.47549999999999998</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="1">
+        <v>0.56740000000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.24129999999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.2223</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>0.44289999999999996</v>
+        <v>0.38335999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6437,21 +6929,27 @@
       <c r="C9" s="1">
         <v>0.47649999999999998</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="1">
+        <v>0.56710000000000005</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.24149999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.21959999999999999</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>0.44364999999999999</v>
+        <v>0.38310000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>0.18659999999999999</v>
@@ -6459,16 +6957,22 @@
       <c r="C10" s="1">
         <v>0.24990000000000001</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.26490000000000002</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.26939999999999997</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>0.21825</v>
+        <v>0.24715999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6481,16 +6985,22 @@
       <c r="C11" s="1">
         <v>0.46010000000000001</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="1">
+        <v>0.56069999999999998</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.24079999999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.2198</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1">
         <f t="shared" si="0"/>
-        <v>0.4612</v>
+        <v>0.38873999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6503,16 +7013,22 @@
       <c r="C12" s="1">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="1">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.2175</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.19639999999999999</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1">
         <f t="shared" si="0"/>
-        <v>0.31859999999999999</v>
+        <v>0.31113999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6525,16 +7041,22 @@
       <c r="C13" s="1">
         <v>0.52449999999999997</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="1">
+        <v>0.60589999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.2656</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.2344</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f t="shared" si="0"/>
-        <v>0.56915000000000004</v>
+        <v>0.44884000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6547,16 +7069,22 @@
       <c r="C14" s="1">
         <v>0.17460000000000001</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="D14" s="1">
+        <v>0.23430000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.21340000000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.20369999999999999</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1">
         <f t="shared" si="0"/>
-        <v>0.15095</v>
+        <v>0.19066</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6569,16 +7097,22 @@
       <c r="C15" s="1">
         <v>0.64810000000000001</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="D15" s="1">
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.31209999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.27160000000000001</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1">
         <f t="shared" si="0"/>
-        <v>0.74514999999999998</v>
+        <v>0.56163999999999992</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6591,16 +7125,22 @@
       <c r="C16" s="1">
         <v>3.3</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="1">
+        <v>5.0831999999999997</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.7865</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.2756000000000001</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>3.2454000000000001</v>
+        <v>2.9272200000000002</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6613,16 +7153,22 @@
       <c r="C17" s="1">
         <v>0.21890000000000001</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="D17" s="1">
+        <v>0.434</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.18260000000000001</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1">
         <f t="shared" si="0"/>
-        <v>0.26629999999999998</v>
+        <v>0.26948</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6635,16 +7181,22 @@
       <c r="C18" s="1">
         <v>0.49869999999999998</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="D18" s="1">
+        <v>0.47910000000000003</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.42259999999999998</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>0.39329999999999998</v>
+        <v>0.43742000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6657,21 +7209,27 @@
       <c r="C19" s="1">
         <v>0.18</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="D19" s="1">
+        <v>0.2147</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.19450000000000001</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>0.15404999999999999</v>
+        <v>0.18537999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>0.15429999999999999</v>
@@ -6679,8 +7237,12 @@
       <c r="C20" s="1">
         <v>0.20880000000000001</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1">
+        <v>0.24979999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.23569999999999999</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -6688,12 +7250,12 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>0.18154999999999999</v>
+        <v>0.21215000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>0.18740000000000001</v>
@@ -6701,8 +7263,12 @@
       <c r="C21" s="1">
         <v>0.24909999999999999</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1">
+        <v>0.25990000000000002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.30480000000000002</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -6710,12 +7276,12 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>0.21825</v>
+        <v>0.25030000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>0.23400000000000001</v>
@@ -6723,8 +7289,12 @@
       <c r="C22" s="1">
         <v>0.28339999999999999</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1">
+        <v>0.31319999999999998</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.33439999999999998</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -6732,12 +7302,12 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.25869999999999999</v>
+        <v>0.29125000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>0.24660000000000001</v>
@@ -6745,8 +7315,12 @@
       <c r="C23" s="1">
         <v>0.28939999999999999</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.31390000000000001</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -6754,7 +7328,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.26800000000000002</v>
+        <v>0.295375</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -6767,16 +7341,22 @@
       <c r="C24" s="1">
         <v>0.41149999999999998</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="D24" s="1">
+        <v>0.30580000000000002</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.21510000000000001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.1946</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>0.34334999999999999</v>
+        <v>0.28044000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -6789,16 +7369,22 @@
       <c r="C25" s="1">
         <v>0.53649999999999998</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="D25" s="1">
+        <v>0.309</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.2616</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.23280000000000001</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>0.61204999999999998</v>
+        <v>0.40549999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -6811,16 +7397,22 @@
       <c r="C26" s="1">
         <v>0.40739999999999998</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="D26" s="1">
+        <v>0.2472</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.2127</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.19139999999999999</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>0.34255000000000002</v>
+        <v>0.26728000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -6833,21 +7425,27 @@
       <c r="C27" s="1">
         <v>0.52729999999999999</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="D27" s="1">
+        <v>0.30530000000000002</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.22939999999999999</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>0.62270000000000003</v>
+        <v>0.40781999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>0.54710000000000003</v>
@@ -6855,21 +7453,27 @@
       <c r="C28" s="1">
         <v>0.55420000000000003</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="D28" s="1">
+        <v>0.69489999999999996</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.30230000000000001</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.55065000000000008</v>
+        <v>0.48407999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>0.55659999999999998</v>
@@ -6877,21 +7481,27 @@
       <c r="C29" s="1">
         <v>0.61180000000000001</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="D29" s="1">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.30009999999999998</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.58420000000000005</v>
+        <v>0.46607999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>0.3967</v>
@@ -6899,16 +7509,22 @@
       <c r="C30" s="1">
         <v>0.5272</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="D30" s="1">
+        <v>0.95350000000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.37090000000000001</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.27489999999999998</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.46194999999999997</v>
+        <v>0.50463999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -6921,16 +7537,22 @@
       <c r="C31" s="1">
         <v>0.41389999999999999</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="D31" s="1">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.2858</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.23269999999999999</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.34094999999999998</v>
+        <v>0.41387999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -6943,21 +7565,27 @@
       <c r="C32" s="1">
         <v>0.4123</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="D32" s="1">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.2303</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.33245000000000002</v>
+        <v>0.42259999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>0.15709999999999999</v>
@@ -6965,16 +7593,22 @@
       <c r="C33" s="1">
         <v>0.22739999999999999</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="D33" s="1">
+        <v>0.2661</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.2349</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.40350000000000003</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>0.19224999999999998</v>
+        <v>0.25779999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6988,7 +7622,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7022,7 +7656,7 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7171,7 +7805,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>6.4999999999999997E-3</v>
@@ -7315,7 +7949,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>7.1000000000000004E-3</v>
@@ -7639,7 +8273,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>6.6E-3</v>
@@ -7675,7 +8309,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>6.4999999999999997E-3</v>
@@ -7711,7 +8345,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>6.6E-3</v>
@@ -7747,7 +8381,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>7.1000000000000004E-3</v>
@@ -7927,7 +8561,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>6.4999999999999997E-3</v>
@@ -7963,7 +8597,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>6.6E-3</v>
@@ -7999,7 +8633,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>6.6E-3</v>
@@ -8107,7 +8741,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>6.4999999999999997E-3</v>
@@ -8152,7 +8786,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8186,7 +8820,7 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8335,7 +8969,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>0.93669999999999998</v>
@@ -8479,7 +9113,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>0.94330000000000003</v>
@@ -8803,7 +9437,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>0.92659999999999998</v>
@@ -8839,7 +9473,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>0.9365</v>
@@ -8875,7 +9509,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>0.93559999999999999</v>
@@ -8911,7 +9545,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>0.94030000000000002</v>
@@ -9091,7 +9725,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>0.93410000000000004</v>
@@ -9127,7 +9761,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>0.93410000000000004</v>
@@ -9163,7 +9797,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>0.93579999999999997</v>
@@ -9271,7 +9905,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>0.9375</v>
@@ -9316,20 +9950,20 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9402,7 +10036,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <f>Precision!K6</f>
@@ -9470,7 +10104,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <f>Precision!K10</f>
@@ -9640,7 +10274,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <f>Precision!K20</f>
@@ -9657,7 +10291,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <f>Precision!K21</f>
@@ -9674,7 +10308,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <f>Precision!K22</f>
@@ -9691,7 +10325,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <f>Precision!K23</f>
@@ -9776,7 +10410,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <f>Precision!K28</f>
@@ -9793,7 +10427,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <f>Precision!K29</f>
@@ -9810,7 +10444,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <f>Precision!K30</f>
@@ -9861,7 +10495,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <f>Precision!K33</f>
@@ -9898,16 +10532,16 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9920,11 +10554,11 @@
       </c>
       <c r="C2" s="1">
         <f>MSE!K15</f>
-        <v>0.84370000000000001</v>
+        <v>0.85774000000000006</v>
       </c>
       <c r="D2" s="1">
         <f>1-('R'!K15)</f>
-        <v>0.56420000000000003</v>
+        <v>0.57950000000000002</v>
       </c>
       <c r="E2" s="1">
         <f>1-(Precision!K15)</f>
@@ -9945,11 +10579,11 @@
       </c>
       <c r="C3" s="1">
         <f>MSE!K25</f>
-        <v>0.85454999999999992</v>
+        <v>0.86739999999999995</v>
       </c>
       <c r="D3" s="1">
         <f>1-('R'!K25)</f>
-        <v>0.57435000000000003</v>
+        <v>0.58801999999999999</v>
       </c>
       <c r="E3" s="1">
         <f>1-(Precision!K25)</f>
@@ -9962,19 +10596,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1">
         <f>MAE!K28</f>
-        <v>0.74249999999999994</v>
+        <v>0.74643999999999999</v>
       </c>
       <c r="C4" s="1">
         <f>MSE!K28</f>
-        <v>0.88595000000000002</v>
+        <v>0.89734000000000003</v>
       </c>
       <c r="D4" s="1">
         <f>1-('R'!K28)</f>
-        <v>0.59715000000000007</v>
+        <v>0.60987999999999998</v>
       </c>
       <c r="E4" s="1">
         <f>1-(Precision!K28)</f>

--- a/2_design/asim/artifacts/testing/analyze-item.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBE85EF-6664-42DB-851A-D37D7546E695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB5BE3D-DAA4-4CAF-AB91-9AE99E958515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
@@ -420,7 +420,7 @@
                   <c:v>0.82228888888888885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73526000000000002</c:v>
+                  <c:v>0.7558555555555555</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.78458888888888889</c:v>
@@ -432,7 +432,7 @@
                   <c:v>0.78242222222222213</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7419</c:v>
+                  <c:v>0.77783333333333327</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.75835555555555567</c:v>
@@ -444,7 +444,7 @@
                   <c:v>0.75551111111111124</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.73184000000000005</c:v>
+                  <c:v>0.79579999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.7538111111111111</c:v>
@@ -456,22 +456,22 @@
                   <c:v>0.76703333333333334</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.79879999999999995</c:v>
+                  <c:v>0.82317777777777768</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.73680000000000001</c:v>
+                  <c:v>0.76098888888888905</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.79185000000000005</c:v>
+                  <c:v>0.83805555555555555</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.73367499999999986</c:v>
+                  <c:v>0.75811111111111118</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.73399999999999999</c:v>
+                  <c:v>0.75883333333333336</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.74435000000000007</c:v>
+                  <c:v>0.77746666666666675</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.76255555555555554</c:v>
@@ -486,22 +486,22 @@
                   <c:v>0.75366666666666671</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.74643999999999999</c:v>
+                  <c:v>0.76116666666666666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.74275999999999998</c:v>
+                  <c:v>0.76548888888888877</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.73233999999999999</c:v>
+                  <c:v>0.75819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.73004000000000002</c:v>
+                  <c:v>0.76066666666666682</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.72496000000000005</c:v>
+                  <c:v>0.76146666666666674</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.72736000000000001</c:v>
+                  <c:v>0.75568888888888885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,10 +1205,10 @@
                   <c:v>0.7538111111111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85774000000000006</c:v>
+                  <c:v>0.92837777777777775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57950000000000002</c:v>
+                  <c:v>0.61703333333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.9651777777777778</c:v>
@@ -1296,10 +1296,10 @@
                   <c:v>0.75438888888888878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86739999999999995</c:v>
+                  <c:v>0.92596666666666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58801999999999999</c:v>
+                  <c:v>0.61838888888888888</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.96516666666666662</c:v>
@@ -1384,13 +1384,13 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.74643999999999999</c:v>
+                  <c:v>0.76116666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89734000000000003</c:v>
+                  <c:v>0.93643333333333323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60987999999999998</c:v>
+                  <c:v>0.62628888888888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.9693222222222222</c:v>
@@ -3740,8 +3740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F415299B-7611-4776-90FA-43332039FA40}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3941,13 +3941,21 @@
       <c r="F6" s="1">
         <v>0.74339999999999995</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="G6" s="1">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.84209999999999996</v>
+      </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>0.73526000000000002</v>
+        <v>0.7558555555555555</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4077,13 +4085,21 @@
       <c r="F10" s="1">
         <v>0.76049999999999995</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="G10" s="1">
+        <v>0.7742</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.89659999999999995</v>
+      </c>
       <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>0.7419</v>
+        <v>0.77783333333333327</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4213,13 +4229,21 @@
       <c r="F14" s="1">
         <v>0.74809999999999999</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="G14" s="1">
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.8054</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.026</v>
+      </c>
       <c r="K14" s="1">
         <f t="shared" si="0"/>
-        <v>0.73184000000000005</v>
+        <v>0.79579999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4349,13 +4373,21 @@
       <c r="F18" s="1">
         <v>0.80989999999999995</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="G18" s="1">
+        <v>0.81910000000000005</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.83089999999999997</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.8518</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.91279999999999994</v>
+      </c>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>0.79879999999999995</v>
+        <v>0.82317777777777768</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4377,13 +4409,21 @@
       <c r="F19" s="1">
         <v>0.745</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="G19" s="1">
+        <v>0.75109999999999999</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.76280000000000003</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.78869999999999996</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.86229999999999996</v>
+      </c>
       <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>0.73680000000000001</v>
+        <v>0.76098888888888905</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4402,14 +4442,24 @@
       <c r="E20" s="1">
         <v>0.80579999999999996</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="F20" s="1">
+        <v>0.82010000000000005</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.83340000000000003</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.8931</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.97230000000000005</v>
+      </c>
       <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>0.79185000000000005</v>
+        <v>0.83805555555555555</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -4428,14 +4478,24 @@
       <c r="E21" s="1">
         <v>0.73829999999999996</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="F21" s="1">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.74829999999999997</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.75890000000000002</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.78110000000000002</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.85619999999999996</v>
+      </c>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>0.73367499999999986</v>
+        <v>0.75811111111111118</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4454,14 +4514,24 @@
       <c r="E22" s="1">
         <v>0.73850000000000005</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="F22" s="1">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.85970000000000002</v>
+      </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.73399999999999999</v>
+        <v>0.75883333333333336</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -4480,14 +4550,24 @@
       <c r="E23" s="1">
         <v>0.75260000000000005</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="F23" s="1">
+        <v>0.7611</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.81530000000000002</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.88360000000000005</v>
+      </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.74435000000000007</v>
+        <v>0.77746666666666675</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -4653,13 +4733,21 @@
       <c r="F28" s="1">
         <v>0.75370000000000004</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="G28" s="1">
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.7792</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.81740000000000002</v>
+      </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.74643999999999999</v>
+        <v>0.76116666666666666</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -4681,13 +4769,21 @@
       <c r="F29" s="1">
         <v>0.75</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="G29" s="1">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.87019999999999997</v>
+      </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.74275999999999998</v>
+        <v>0.76548888888888877</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -4709,13 +4805,21 @@
       <c r="F30" s="1">
         <v>0.74109999999999998</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="G30" s="1">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.75970000000000004</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.78759999999999997</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.86809999999999998</v>
+      </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.73233999999999999</v>
+        <v>0.75819999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -4737,13 +4841,21 @@
       <c r="F31" s="1">
         <v>0.74</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="G31" s="1">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.7994</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.88519999999999999</v>
+      </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.73004000000000002</v>
+        <v>0.76066666666666682</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -4765,13 +4877,21 @@
       <c r="F32" s="1">
         <v>0.73799999999999999</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="G32" s="1">
+        <v>0.74860000000000004</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.77010000000000001</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.81210000000000004</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.89759999999999995</v>
+      </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.72496000000000005</v>
+        <v>0.76146666666666674</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4793,13 +4913,21 @@
       <c r="F33" s="1">
         <v>0.73740000000000006</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="G33" s="1">
+        <v>0.74439999999999995</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.7893</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.87170000000000003</v>
+      </c>
       <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>0.72736000000000001</v>
+        <v>0.75568888888888885</v>
       </c>
     </row>
   </sheetData>
@@ -4814,7 +4942,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4870,13 +4998,21 @@
       <c r="F2" s="1">
         <v>0.91659999999999997</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="G2" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="K2" s="1">
         <f>AVERAGE(B2:J2)</f>
-        <v>0.8996599999999999</v>
+        <v>0.93962222222222225</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4898,13 +5034,21 @@
       <c r="F3" s="1">
         <v>0.89570000000000005</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="G3" s="1">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.93689999999999996</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.0012000000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.2213000000000001</v>
+      </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
-        <v>0.87646000000000002</v>
+        <v>0.93901111111111091</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4926,13 +5070,21 @@
       <c r="F4" s="1">
         <v>0.94410000000000005</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="G4" s="1">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.0055000000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.0851999999999999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.2773000000000001</v>
+      </c>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>0.91457999999999995</v>
+        <v>0.98997777777777785</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4954,13 +5106,21 @@
       <c r="F5" s="1">
         <v>1.0370999999999999</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="G5" s="1">
+        <v>1.0618000000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.0915999999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.1513</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.3413999999999999</v>
+      </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>1.0092999999999999</v>
+        <v>1.0769555555555554</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4982,13 +5142,21 @@
       <c r="F6" s="1">
         <v>0.89229999999999998</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="G6" s="1">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.173</v>
+      </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>0.87203999999999993</v>
+        <v>0.92904444444444445</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5010,13 +5178,21 @@
       <c r="F7" s="1">
         <v>0.96089999999999998</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="G7" s="1">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.034</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.1036999999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.1207</v>
+      </c>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>0.92253999999999992</v>
+        <v>0.98492222222222203</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5038,13 +5214,21 @@
       <c r="F8" s="1">
         <v>0.92730000000000001</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="G8" s="1">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.0076000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.0889</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.3465</v>
+      </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>0.89336000000000004</v>
+        <v>0.98558888888888896</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5066,13 +5250,21 @@
       <c r="F9" s="1">
         <v>0.95379999999999998</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="G9" s="1">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.0257000000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.0969</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.1240000000000001</v>
+      </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>0.91734000000000004</v>
+        <v>0.97982222222222226</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5094,13 +5286,21 @@
       <c r="F10" s="1">
         <v>0.92459999999999998</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="G10" s="1">
+        <v>0.9597</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.0095000000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.0931</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.3039000000000001</v>
+      </c>
       <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>0.88326000000000016</v>
+        <v>0.97583333333333344</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5122,13 +5322,21 @@
       <c r="F11" s="1">
         <v>0.89370000000000005</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="G11" s="1">
+        <v>0.9083</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.2142999999999999</v>
+      </c>
       <c r="K11" s="1">
         <f t="shared" si="0"/>
-        <v>0.87344000000000011</v>
+        <v>0.93610000000000015</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5150,13 +5358,21 @@
       <c r="F12" s="1">
         <v>0.91510000000000002</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="G12" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.1624000000000001</v>
+      </c>
       <c r="K12" s="1">
         <f t="shared" si="0"/>
-        <v>0.89825999999999995</v>
+        <v>0.94633333333333325</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5178,13 +5394,21 @@
       <c r="F13" s="1">
         <v>0.89139999999999997</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="G13" s="1">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.1735</v>
+      </c>
       <c r="K13" s="1">
         <f t="shared" si="0"/>
-        <v>0.87112000000000001</v>
+        <v>0.92832222222222227</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5206,13 +5430,21 @@
       <c r="F14" s="1">
         <v>0.90359999999999996</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="G14" s="1">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.0572999999999999</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.3442000000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.6989000000000001</v>
+      </c>
       <c r="K14" s="1">
         <f t="shared" si="0"/>
-        <v>0.86559999999999993</v>
+        <v>1.0415888888888887</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5234,13 +5466,21 @@
       <c r="F15" s="1">
         <v>0.88119999999999998</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="G15" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.93420000000000003</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.0097</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.2228000000000001</v>
+      </c>
       <c r="K15" s="1">
         <f t="shared" si="0"/>
-        <v>0.85774000000000006</v>
+        <v>0.92837777777777775</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5262,13 +5502,21 @@
       <c r="F16" s="1">
         <v>1.0186999999999999</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="G16" s="1">
+        <v>1.0317000000000001</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.0491999999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.095</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.2090000000000001</v>
+      </c>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>0.99960000000000004</v>
+        <v>1.0425444444444443</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -5290,13 +5538,21 @@
       <c r="F17" s="1">
         <v>0.92190000000000005</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="G17" s="1">
+        <v>0.93059999999999998</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.1733</v>
+      </c>
       <c r="K17" s="1">
         <f t="shared" si="0"/>
-        <v>0.90690000000000004</v>
+        <v>0.95423333333333338</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -5318,13 +5574,21 @@
       <c r="F18" s="1">
         <v>1.0476000000000001</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="G18" s="1">
+        <v>1.0729</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.1025</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.1601999999999999</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.3501000000000001</v>
+      </c>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>1.0208200000000001</v>
+        <v>1.0877555555555556</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -5346,13 +5610,21 @@
       <c r="F19" s="1">
         <v>0.89700000000000002</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="G19" s="1">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.94689999999999996</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.0193000000000001</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.2344999999999999</v>
+      </c>
       <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>0.87539999999999996</v>
+        <v>0.94364444444444451</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -5371,14 +5643,24 @@
       <c r="E20" s="1">
         <v>1.0526</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="F20" s="1">
+        <v>1.0878000000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.1241000000000001</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.1852</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.2898000000000001</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.5165</v>
+      </c>
       <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>1.0161500000000001</v>
+        <v>1.1408888888888891</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -5397,14 +5679,24 @@
       <c r="E21" s="1">
         <v>0.88</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="F21" s="1">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.2130000000000001</v>
+      </c>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>0.86799999999999988</v>
+        <v>0.93547777777777774</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -5423,14 +5715,24 @@
       <c r="E22" s="1">
         <v>0.88049999999999995</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="F22" s="1">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.0006999999999999</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.2230000000000001</v>
+      </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.86899999999999999</v>
+        <v>0.93745555555555571</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -5449,14 +5751,24 @@
       <c r="E23" s="1">
         <v>0.90610000000000002</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="F23" s="1">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.9516</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.0637000000000001</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.2684</v>
+      </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.88772499999999999</v>
+        <v>0.97228888888888898</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -5478,13 +5790,21 @@
       <c r="F24" s="1">
         <v>0.91090000000000004</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="G24" s="1">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.1658999999999999</v>
+      </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>0.89354</v>
+        <v>0.9433555555555555</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -5506,13 +5826,21 @@
       <c r="F25" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="G25" s="1">
+        <v>0.90269999999999995</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.1762999999999999</v>
+      </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>0.86739999999999995</v>
+        <v>0.92596666666666672</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -5534,13 +5862,21 @@
       <c r="F26" s="1">
         <v>0.91820000000000002</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="G26" s="1">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.0363</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.2269000000000001</v>
+      </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>0.89078000000000002</v>
+        <v>0.95840000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -5562,13 +5898,21 @@
       <c r="F27" s="1">
         <v>0.88370000000000004</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="G27" s="1">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.0205</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1.2262</v>
+      </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>0.85282000000000002</v>
+        <v>0.92939999999999989</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -5590,13 +5934,21 @@
       <c r="F28" s="1">
         <v>0.91510000000000002</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="G28" s="1">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.94450000000000001</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1.0894999999999999</v>
+      </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.89734000000000003</v>
+        <v>0.93643333333333323</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -5618,13 +5970,21 @@
       <c r="F29" s="1">
         <v>0.90720000000000001</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="G29" s="1">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.9466</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.0111000000000001</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1.2521</v>
+      </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.88891999999999993</v>
+        <v>0.95272222222222203</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -5646,13 +6006,21 @@
       <c r="F30" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="G30" s="1">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1.0168999999999999</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1.2467999999999999</v>
+      </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.86585999999999996</v>
+        <v>0.93762222222222213</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -5674,13 +6042,21 @@
       <c r="F31" s="1">
         <v>0.8871</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="G31" s="1">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1.0508999999999999</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1.2959000000000001</v>
+      </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.86177999999999988</v>
+        <v>0.94648888888888882</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -5702,13 +6078,21 @@
       <c r="F32" s="1">
         <v>0.88690000000000002</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="G32" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1.0906</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.3345</v>
+      </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.85350000000000004</v>
+        <v>0.95397777777777781</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -5730,13 +6114,21 @@
       <c r="F33" s="1">
         <v>0.88149999999999995</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="G33" s="1">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1.0246999999999999</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1.2592000000000001</v>
+      </c>
       <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>0.85627999999999993</v>
+        <v>0.93436666666666668</v>
       </c>
     </row>
   </sheetData>
@@ -5749,8 +6141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10484FF-0F81-4946-89C5-3E5AAAADF83E}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5806,13 +6198,21 @@
       <c r="F2" s="1">
         <v>0.37759999999999999</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="G2" s="1">
+        <v>0.37630000000000002</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.36520000000000002</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.31540000000000001</v>
+      </c>
       <c r="K2" s="1">
         <f>AVERAGE(B2:J2)</f>
-        <v>0.38815999999999995</v>
+        <v>0.3710222222222222</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5834,13 +6234,21 @@
       <c r="F3" s="1">
         <v>0.39479999999999998</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="G3" s="1">
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.37219999999999998</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.3392</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.26200000000000001</v>
+      </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
-        <v>0.39851999999999999</v>
+        <v>0.37272222222222218</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5862,13 +6270,21 @@
       <c r="F4" s="1">
         <v>0.37730000000000002</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="G4" s="1">
+        <v>0.3629</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.2979</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.2273</v>
+      </c>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>0.39732000000000001</v>
+        <v>0.35718888888888883</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5890,13 +6306,21 @@
       <c r="F5" s="1">
         <v>0.36720000000000003</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="G5" s="1">
+        <v>0.35410000000000003</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.29680000000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.2243</v>
+      </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>0.39439999999999997</v>
+        <v>0.35314444444444448</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5918,13 +6342,21 @@
       <c r="F6" s="1">
         <v>0.39610000000000001</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="G6" s="1">
+        <v>0.38929999999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.37409999999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.34289999999999998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.2661</v>
+      </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>0.40128000000000003</v>
+        <v>0.37542222222222221</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5946,13 +6378,21 @@
       <c r="F7" s="1">
         <v>0.37380000000000002</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="G7" s="1">
+        <v>0.3604</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.30020000000000002</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.27850000000000003</v>
+      </c>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>0.39760000000000006</v>
+        <v>0.36261111111111116</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5974,13 +6414,21 @@
       <c r="F8" s="1">
         <v>0.38929999999999998</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="G8" s="1">
+        <v>0.3755</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.3488</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.3054</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.2412</v>
+      </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>0.41288000000000002</v>
+        <v>0.37058888888888897</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6002,13 +6450,21 @@
       <c r="F9" s="1">
         <v>0.377</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="G9" s="1">
+        <v>0.36420000000000002</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.34050000000000002</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.3029</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.27739999999999998</v>
+      </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>0.40038000000000001</v>
+        <v>0.36521111111111115</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6030,13 +6486,21 @@
       <c r="F10" s="1">
         <v>0.3916</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="G10" s="1">
+        <v>0.37619999999999998</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.34770000000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.2266</v>
+      </c>
       <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>0.41332000000000002</v>
+        <v>0.36896666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6058,13 +6522,21 @@
       <c r="F11" s="1">
         <v>0.39500000000000002</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="G11" s="1">
+        <v>0.38769999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.37169999999999997</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.3397</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.26369999999999999</v>
+      </c>
       <c r="K11" s="1">
         <f t="shared" si="0"/>
-        <v>0.40818000000000004</v>
+        <v>0.37818888888888896</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6086,13 +6558,21 @@
       <c r="F12" s="1">
         <v>0.37790000000000001</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="G12" s="1">
+        <v>0.37669999999999998</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.36580000000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.27139999999999997</v>
+      </c>
       <c r="K12" s="1">
         <f t="shared" si="0"/>
-        <v>0.38843999999999995</v>
+        <v>0.36644444444444441</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6114,13 +6594,21 @@
       <c r="F13" s="1">
         <v>0.39629999999999999</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="G13" s="1">
+        <v>0.38940000000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.37430000000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.26729999999999998</v>
+      </c>
       <c r="K13" s="1">
         <f t="shared" si="0"/>
-        <v>0.40937999999999997</v>
+        <v>0.38004444444444446</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6142,13 +6630,21 @@
       <c r="F14" s="1">
         <v>0.30259999999999998</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="G14" s="1">
+        <v>0.27689999999999998</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.2276</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.1673</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.15440000000000001</v>
+      </c>
       <c r="K14" s="1">
         <f t="shared" si="0"/>
-        <v>0.33013999999999999</v>
+        <v>0.27521111111111107</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6170,13 +6666,21 @@
       <c r="F15" s="1">
         <v>0.40400000000000003</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="G15" s="1">
+        <v>0.39069999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.36990000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.25469999999999998</v>
+      </c>
       <c r="K15" s="1">
         <f t="shared" si="0"/>
-        <v>0.42049999999999998</v>
+        <v>0.38296666666666668</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6198,13 +6702,21 @@
       <c r="F16" s="1">
         <v>0.34570000000000001</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="G16" s="1">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.3206</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.28149999999999997</v>
+      </c>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>0.36172000000000004</v>
+        <v>0.34311111111111109</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6226,13 +6738,21 @@
       <c r="F17" s="1">
         <v>0.36980000000000002</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="G17" s="1">
+        <v>0.37069999999999997</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.3589</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.26740000000000003</v>
+      </c>
       <c r="K17" s="1">
         <f t="shared" si="0"/>
-        <v>0.3795</v>
+        <v>0.35905555555555552</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6254,13 +6774,21 @@
       <c r="F18" s="1">
         <v>0.37119999999999997</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="G18" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.2238</v>
+      </c>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>0.39225999999999994</v>
+        <v>0.35211111111111104</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6282,13 +6810,21 @@
       <c r="F19" s="1">
         <v>0.3982</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="G19" s="1">
+        <v>0.38940000000000002</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.36859999999999998</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.254</v>
+      </c>
       <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>0.40406000000000003</v>
+        <v>0.37374444444444443</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6307,14 +6843,24 @@
       <c r="E20" s="1">
         <v>0.33579999999999999</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="F20" s="1">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.3155</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.29859999999999998</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.2747</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.24399999999999999</v>
+      </c>
       <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>0.34545000000000003</v>
+        <v>0.3155</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -6333,14 +6879,24 @@
       <c r="E21" s="1">
         <v>0.40100000000000002</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="F21" s="1">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.3881</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.37219999999999998</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.3402</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.26400000000000001</v>
+      </c>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>0.401675</v>
+        <v>0.37405555555555547</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -6359,14 +6915,24 @@
       <c r="E22" s="1">
         <v>0.4002</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="F22" s="1">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.3886</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.37230000000000002</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.33929999999999999</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.26200000000000001</v>
+      </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.40024999999999999</v>
+        <v>0.3731666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -6385,14 +6951,24 @@
       <c r="E23" s="1">
         <v>0.39129999999999998</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="F23" s="1">
+        <v>0.38140000000000002</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.30309999999999998</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.2288</v>
+      </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.3982</v>
+        <v>0.35710000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -6414,13 +6990,21 @@
       <c r="F24" s="1">
         <v>0.38</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="G24" s="1">
+        <v>0.378</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.36709999999999998</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.2702</v>
+      </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>0.39072000000000007</v>
+        <v>0.3678555555555556</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -6442,13 +7026,21 @@
       <c r="F25" s="1">
         <v>0.39860000000000001</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="G25" s="1">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.3755</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.34229999999999999</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.26629999999999998</v>
+      </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>0.41197999999999996</v>
+        <v>0.38161111111111112</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -6470,13 +7062,21 @@
       <c r="F26" s="1">
         <v>0.37069999999999997</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="G26" s="1">
+        <v>0.35920000000000002</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.33929999999999999</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.3075</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.24660000000000001</v>
+      </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>0.39216000000000001</v>
+        <v>0.3570444444444445</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -6498,13 +7098,21 @@
       <c r="F27" s="1">
         <v>0.39679999999999999</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="G27" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.24690000000000001</v>
+      </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>0.42227999999999993</v>
+        <v>0.37914444444444445</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -6526,13 +7134,21 @@
       <c r="F28" s="1">
         <v>0.37909999999999999</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="G28" s="1">
+        <v>0.37730000000000002</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.36680000000000001</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.31580000000000003</v>
+      </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.39011999999999997</v>
+        <v>0.37371111111111111</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -6554,13 +7170,21 @@
       <c r="F29" s="1">
         <v>0.38729999999999998</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="G29" s="1">
+        <v>0.38350000000000001</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.3362</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.2515</v>
+      </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.39839999999999998</v>
+        <v>0.37013333333333331</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -6582,13 +7206,21 @@
       <c r="F30" s="1">
         <v>0.40029999999999999</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="G30" s="1">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.25530000000000003</v>
+      </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.40734000000000004</v>
+        <v>0.37532222222222222</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -6610,13 +7242,21 @@
       <c r="F31" s="1">
         <v>0.40150000000000002</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="G31" s="1">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.35949999999999999</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.31409999999999999</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.24590000000000001</v>
+      </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.41181999999999996</v>
+        <v>0.37378888888888884</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -6638,13 +7278,21 @@
       <c r="F32" s="1">
         <v>0.39900000000000002</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="G32" s="1">
+        <v>0.37769999999999998</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.24</v>
+      </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.41705999999999993</v>
+        <v>0.37243333333333328</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -6666,13 +7314,21 @@
       <c r="F33" s="1">
         <v>0.40229999999999999</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="G33" s="1">
+        <v>0.38740000000000002</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.36649999999999999</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.3261</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.25459999999999999</v>
+      </c>
       <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>0.41293999999999997</v>
+        <v>0.37769999999999992</v>
       </c>
     </row>
   </sheetData>
@@ -6685,8 +7341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2A596-55B6-400A-BEAB-8F453735749D}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6742,13 +7398,21 @@
       <c r="F2" s="1">
         <v>0.18740000000000001</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="G2" s="1">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9.74E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="K2" s="1">
         <f>AVERAGE(B2:J2)</f>
-        <v>0.28500000000000003</v>
+        <v>0.23226666666666665</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6770,13 +7434,21 @@
       <c r="F3" s="1">
         <v>0.21129999999999999</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="G3" s="1">
+        <v>0.37380000000000002</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.26519999999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.19239999999999999</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3.0200000000000001E-2</v>
+      </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
-        <v>0.34492</v>
+        <v>0.28735555555555553</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6798,13 +7470,21 @@
       <c r="F4" s="1">
         <v>0.19059999999999999</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="G4" s="1">
+        <v>0.32119999999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.22520000000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.1100000000000001E-2</v>
+      </c>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>0.30550000000000005</v>
+        <v>0.24833333333333338</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6826,13 +7506,21 @@
       <c r="F5" s="1">
         <v>0.19850000000000001</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="G5" s="1">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.2384</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.1457</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.2800000000000001E-2</v>
+      </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>0.34547999999999995</v>
+        <v>0.27582222222222225</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6854,13 +7542,21 @@
       <c r="F6" s="1">
         <v>0.30209999999999998</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="G6" s="1">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4.6699999999999998E-2</v>
+      </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>0.25351999999999997</v>
+        <v>0.20053333333333334</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6882,13 +7578,21 @@
       <c r="F7" s="1">
         <v>0.19839999999999999</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="G7" s="1">
+        <v>0.34139999999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.23860000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.1545</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>0.32209999999999994</v>
+        <v>0.26366666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6910,13 +7614,21 @@
       <c r="F8" s="1">
         <v>0.2223</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="G8" s="1">
+        <v>0.37040000000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.22159999999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.2099999999999997E-2</v>
+      </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>0.38335999999999998</v>
+        <v>0.31117777777777778</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6938,13 +7650,21 @@
       <c r="F9" s="1">
         <v>0.21959999999999999</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="G9" s="1">
+        <v>0.38650000000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.25369999999999998</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>0.38310000000000005</v>
+        <v>0.31236666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6966,13 +7686,21 @@
       <c r="F10" s="1">
         <v>0.26939999999999997</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="G10" s="1">
+        <v>0.22520000000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.1452</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3.3799999999999997E-2</v>
+      </c>
       <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>0.24715999999999999</v>
+        <v>0.19220000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6994,13 +7722,21 @@
       <c r="F11" s="1">
         <v>0.2198</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="G11" s="1">
+        <v>0.39219999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.27539999999999998</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.2218</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3.3500000000000002E-2</v>
+      </c>
       <c r="K11" s="1">
         <f t="shared" si="0"/>
-        <v>0.38873999999999997</v>
+        <v>0.31851111111111108</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7022,13 +7758,21 @@
       <c r="F12" s="1">
         <v>0.19639999999999999</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="G12" s="1">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.23830000000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.1467</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2.1700000000000001E-2</v>
+      </c>
       <c r="K12" s="1">
         <f t="shared" si="0"/>
-        <v>0.31113999999999997</v>
+        <v>0.25655555555555559</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7050,13 +7794,21 @@
       <c r="F13" s="1">
         <v>0.2344</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="G13" s="1">
+        <v>0.21820000000000001</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.28310000000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.27879999999999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.1600000000000003E-2</v>
+      </c>
       <c r="K13" s="1">
         <f t="shared" si="0"/>
-        <v>0.44884000000000002</v>
+        <v>0.33954444444444448</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7078,13 +7830,21 @@
       <c r="F14" s="1">
         <v>0.20369999999999999</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="G14" s="1">
+        <v>0.17979999999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.1197</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.5399999999999999E-2</v>
+      </c>
       <c r="K14" s="1">
         <f t="shared" si="0"/>
-        <v>0.19066</v>
+        <v>0.15063333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7106,13 +7866,21 @@
       <c r="F15" s="1">
         <v>0.27160000000000001</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="G15" s="1">
+        <v>0.25040000000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.32119999999999999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
       <c r="K15" s="1">
         <f t="shared" si="0"/>
-        <v>0.56163999999999992</v>
+        <v>0.42488888888888887</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7134,13 +7902,21 @@
       <c r="F16" s="1">
         <v>1.2756000000000001</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="G16" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.0813999999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.31569999999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>9.8699999999999996E-2</v>
+      </c>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>2.9272200000000002</v>
+        <v>1.9016555555555559</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -7162,13 +7938,21 @@
       <c r="F17" s="1">
         <v>0.18260000000000001</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="G17" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.23E-2</v>
+      </c>
       <c r="K17" s="1">
         <f t="shared" si="0"/>
-        <v>0.26948</v>
+        <v>0.21131111111111112</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -7190,13 +7974,21 @@
       <c r="F18" s="1">
         <v>0.42259999999999998</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="G18" s="1">
+        <v>0.34389999999999998</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3.8100000000000002E-2</v>
+      </c>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>0.43742000000000003</v>
+        <v>0.32601111111111114</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -7218,13 +8010,21 @@
       <c r="F19" s="1">
         <v>0.19450000000000001</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="G19" s="1">
+        <v>0.1779</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="I19" s="1">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2.4500000000000001E-2</v>
+      </c>
       <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>0.18537999999999999</v>
+        <v>0.14810000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -7243,14 +8043,24 @@
       <c r="E20" s="1">
         <v>0.23569999999999999</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="F20" s="1">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.19939999999999999</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="I20" s="1">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3.27E-2</v>
+      </c>
       <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>0.21215000000000001</v>
+        <v>0.17471111111111112</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -7269,14 +8079,24 @@
       <c r="E21" s="1">
         <v>0.30480000000000002</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="F21" s="1">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.2114</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.1517</v>
+      </c>
+      <c r="I21" s="1">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3.9100000000000003E-2</v>
+      </c>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>0.25030000000000002</v>
+        <v>0.19598888888888888</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -7295,14 +8115,24 @@
       <c r="E22" s="1">
         <v>0.33439999999999998</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="F22" s="1">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.18759999999999999</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.115</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5.0700000000000002E-2</v>
+      </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.29125000000000001</v>
+        <v>0.2270888888888889</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -7321,14 +8151,24 @@
       <c r="E23" s="1">
         <v>0.31390000000000001</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="F23" s="1">
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.24440000000000001</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4.7800000000000002E-2</v>
+      </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.295375</v>
+        <v>0.23018888888888889</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -7350,13 +8190,21 @@
       <c r="F24" s="1">
         <v>0.1946</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="G24" s="1">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.1225</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2.4299999999999999E-2</v>
+      </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>0.28044000000000002</v>
+        <v>0.20883333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -7378,13 +8226,21 @@
       <c r="F25" s="1">
         <v>0.23280000000000001</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="G25" s="1">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.28079999999999999</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3.27E-2</v>
+      </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>0.40549999999999997</v>
+        <v>0.29966666666666675</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -7406,13 +8262,21 @@
       <c r="F26" s="1">
         <v>0.19139999999999999</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="G26" s="1">
+        <v>0.1749</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.1454</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2.1899999999999999E-2</v>
+      </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>0.26728000000000002</v>
+        <v>0.19962222222222226</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -7434,13 +8298,21 @@
       <c r="F27" s="1">
         <v>0.22939999999999999</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="G27" s="1">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.1406</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3.15E-2</v>
+      </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>0.40781999999999996</v>
+        <v>0.3000666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -7462,13 +8334,21 @@
       <c r="F28" s="1">
         <v>0.30230000000000001</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="G28" s="1">
+        <v>0.3024</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.42420000000000002</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.5675</v>
+      </c>
+      <c r="J28" s="1">
+        <v>9.1600000000000001E-2</v>
+      </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.48407999999999995</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -7490,13 +8370,21 @@
       <c r="F29" s="1">
         <v>0.30009999999999998</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="G29" s="1">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.1275</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.56910000000000005</v>
+      </c>
+      <c r="J29" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.46607999999999999</v>
+        <v>0.38016666666666671</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -7518,13 +8406,21 @@
       <c r="F30" s="1">
         <v>0.27489999999999998</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="G30" s="1">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.15579999999999999</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3.9100000000000003E-2</v>
+      </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.50463999999999998</v>
+        <v>0.33850000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -7546,13 +8442,21 @@
       <c r="F31" s="1">
         <v>0.23269999999999999</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="G31" s="1">
+        <v>0.18590000000000001</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.1293</v>
+      </c>
+      <c r="I31" s="1">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5.0299999999999997E-2</v>
+      </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.41387999999999997</v>
+        <v>0.2802</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -7574,13 +8478,21 @@
       <c r="F32" s="1">
         <v>0.2303</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="G32" s="1">
+        <v>0.18379999999999999</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.2054</v>
+      </c>
+      <c r="I32" s="1">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3.15E-2</v>
+      </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.42259999999999998</v>
+        <v>0.29132222222222226</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -7602,13 +8514,21 @@
       <c r="F33" s="1">
         <v>0.40350000000000003</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="G33" s="1">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="J33" s="1">
+        <v>9.1800000000000007E-2</v>
+      </c>
       <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>0.25779999999999997</v>
+        <v>0.25217777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -9949,7 +10869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8A42B3-E71A-4089-B0F9-46956E1D2CB1}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -10554,11 +11474,11 @@
       </c>
       <c r="C2" s="1">
         <f>MSE!K15</f>
-        <v>0.85774000000000006</v>
+        <v>0.92837777777777775</v>
       </c>
       <c r="D2" s="1">
         <f>1-('R'!K15)</f>
-        <v>0.57950000000000002</v>
+        <v>0.61703333333333332</v>
       </c>
       <c r="E2" s="1">
         <f>1-(Precision!K15)</f>
@@ -10579,11 +11499,11 @@
       </c>
       <c r="C3" s="1">
         <f>MSE!K25</f>
-        <v>0.86739999999999995</v>
+        <v>0.92596666666666672</v>
       </c>
       <c r="D3" s="1">
         <f>1-('R'!K25)</f>
-        <v>0.58801999999999999</v>
+        <v>0.61838888888888888</v>
       </c>
       <c r="E3" s="1">
         <f>1-(Precision!K25)</f>
@@ -10600,15 +11520,15 @@
       </c>
       <c r="B4" s="1">
         <f>MAE!K28</f>
-        <v>0.74643999999999999</v>
+        <v>0.76116666666666666</v>
       </c>
       <c r="C4" s="1">
         <f>MSE!K28</f>
-        <v>0.89734000000000003</v>
+        <v>0.93643333333333323</v>
       </c>
       <c r="D4" s="1">
         <f>1-('R'!K28)</f>
-        <v>0.60987999999999998</v>
+        <v>0.62628888888888889</v>
       </c>
       <c r="E4" s="1">
         <f>1-(Precision!K28)</f>

--- a/2_design/asim/artifacts/testing/analyze-item.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB5BE3D-DAA4-4CAF-AB91-9AE99E958515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7017C6E4-18C7-4E25-9AF2-105AD67538CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="6" r:id="rId1"/>
@@ -881,13 +881,13 @@
                   <c:v>3.3538049570698454E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>9.3034475222641098E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.3843793470341894E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>9.5495008633714653E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3.3535323828952593E-2</c:v>
@@ -3740,8 +3740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F415299B-7611-4776-90FA-43332039FA40}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4941,8 +4941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845ED3B-1C35-4974-BD89-89002EC8961B}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6141,8 +6141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10484FF-0F81-4946-89C5-3E5AAAADF83E}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7342,7 +7342,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8541,8 +8541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD571D8-A6EF-4FD2-AC2E-36D5484BA4FE}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9087,8 +9087,12 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1">
+        <v>6.6E-3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.2200000000000001E-2</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -9096,9 +9100,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4000000000000004E-3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9141,8 +9145,12 @@
       <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -9150,9 +9158,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K18" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6500000000000006E-3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -9705,8 +9713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037ECD2-FD94-4DA2-BE1D-F9E27FEA143C}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10251,8 +10259,12 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.90390000000000004</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -10260,9 +10272,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90575000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -10305,8 +10317,12 @@
       <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.91500000000000004</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -10314,9 +10330,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91695000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -11128,17 +11144,17 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="e">
+      <c r="B16" s="1">
         <f>Precision!K16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="1" t="e">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="C16" s="1">
         <f>Recall!K16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.90575000000000006</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>9.3034475222641098E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11162,17 +11178,17 @@
       <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="1" t="e">
+      <c r="B18" s="1">
         <f>Precision!K18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="1" t="e">
+        <v>9.6500000000000006E-3</v>
+      </c>
+      <c r="C18" s="1">
         <f>Recall!K18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.91695000000000004</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>9.5495008633714653E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">

--- a/2_design/asim/artifacts/testing/analyze-item.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7017C6E4-18C7-4E25-9AF2-105AD67538CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D02F9AA-6E09-4040-9ABF-129660E9465A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
@@ -881,13 +881,13 @@
                   <c:v>3.3538049570698454E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3034475222641098E-3</c:v>
+                  <c:v>1.2070109551855352E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.3843793470341894E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.5495008633714653E-3</c:v>
+                  <c:v>1.2364134233328546E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3.3535323828952593E-2</c:v>
@@ -8541,8 +8541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD571D8-A6EF-4FD2-AC2E-36D5484BA4FE}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9093,7 +9093,9 @@
       <c r="C16" s="1">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>1.7899999999999999E-2</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -9102,7 +9104,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>9.4000000000000004E-3</v>
+        <v>1.2233333333333332E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9151,7 +9153,9 @@
       <c r="C18" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>1.83E-2</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -9160,7 +9164,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>9.6500000000000006E-3</v>
+        <v>1.2533333333333334E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -9714,7 +9718,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10265,7 +10269,9 @@
       <c r="C16" s="1">
         <v>0.90390000000000004</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>0.90239999999999998</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -10274,7 +10280,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>0.90575000000000006</v>
+        <v>0.9046333333333334</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -10323,7 +10329,9 @@
       <c r="C18" s="1">
         <v>0.91500000000000004</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>0.91369999999999996</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -10332,7 +10340,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>0.91695000000000004</v>
+        <v>0.91586666666666672</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -11146,15 +11154,15 @@
       </c>
       <c r="B16" s="1">
         <f>Precision!K16</f>
-        <v>9.4000000000000004E-3</v>
+        <v>1.2233333333333332E-2</v>
       </c>
       <c r="C16" s="1">
         <f>Recall!K16</f>
-        <v>0.90575000000000006</v>
+        <v>0.9046333333333334</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>9.3034475222641098E-3</v>
+        <v>1.2070109551855352E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11180,15 +11188,15 @@
       </c>
       <c r="B18" s="1">
         <f>Precision!K18</f>
-        <v>9.6500000000000006E-3</v>
+        <v>1.2533333333333334E-2</v>
       </c>
       <c r="C18" s="1">
         <f>Recall!K18</f>
-        <v>0.91695000000000004</v>
+        <v>0.91586666666666672</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>9.5495008633714653E-3</v>
+        <v>1.2364134233328546E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">

--- a/2_design/asim/artifacts/testing/analyze-item.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D02F9AA-6E09-4040-9ABF-129660E9465A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204A1879-11BD-4B45-A065-66D4007FF5FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
@@ -881,13 +881,13 @@
                   <c:v>3.3538049570698454E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2070109551855352E-2</c:v>
+                  <c:v>1.7647872016693471E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.3843793470341894E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2364134233328546E-2</c:v>
+                  <c:v>1.8036730401939958E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3.3535323828952593E-2</c:v>
@@ -8542,7 +8542,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9096,15 +9096,19 @@
       <c r="D16" s="1">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.9600000000000001E-2</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>1.2233333333333332E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9156,15 +9160,19 @@
       <c r="D18" s="1">
         <v>1.83E-2</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3.0200000000000001E-2</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>1.2533333333333334E-2</v>
+        <v>1.84E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -9718,7 +9726,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10272,15 +10280,19 @@
       <c r="D16" s="1">
         <v>0.90239999999999998</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.8962</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>0.9046333333333334</v>
+        <v>0.90212000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -10332,15 +10344,19 @@
       <c r="D18" s="1">
         <v>0.91369999999999996</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.90869999999999995</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>0.91586666666666672</v>
+        <v>0.91357999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -11154,15 +11170,15 @@
       </c>
       <c r="B16" s="1">
         <f>Precision!K16</f>
-        <v>1.2233333333333332E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C16" s="1">
         <f>Recall!K16</f>
-        <v>0.9046333333333334</v>
+        <v>0.90212000000000003</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>1.2070109551855352E-2</v>
+        <v>1.7647872016693471E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11188,15 +11204,15 @@
       </c>
       <c r="B18" s="1">
         <f>Precision!K18</f>
-        <v>1.2533333333333334E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="C18" s="1">
         <f>Recall!K18</f>
-        <v>0.91586666666666672</v>
+        <v>0.91357999999999995</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>1.2364134233328546E-2</v>
+        <v>1.8036730401939958E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">

--- a/2_design/asim/artifacts/testing/analyze-item.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204A1879-11BD-4B45-A065-66D4007FF5FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC187C3-EF62-4493-B666-F21C5FA794F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="6" r:id="rId1"/>
@@ -881,13 +881,13 @@
                   <c:v>3.3538049570698454E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7647872016693471E-2</c:v>
+                  <c:v>2.3335452330845677E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.3843793470341894E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8036730401939958E-2</c:v>
+                  <c:v>2.3952987536656898E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3.3535323828952593E-2</c:v>
@@ -8541,8 +8541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD571D8-A6EF-4FD2-AC2E-36D5484BA4FE}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9102,13 +9102,17 @@
       <c r="F16" s="1">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1">
+        <v>3.56E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.2099999999999999E-2</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>1.7999999999999999E-2</v>
+        <v>2.3957142857142854E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9166,13 +9170,17 @@
       <c r="F18" s="1">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4.3799999999999999E-2</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>1.84E-2</v>
+        <v>2.4600000000000004E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -9725,8 +9733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037ECD2-FD94-4DA2-BE1D-F9E27FEA143C}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10286,13 +10294,17 @@
       <c r="F16" s="1">
         <v>0.8962</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.88900000000000001</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>0.90212000000000003</v>
+        <v>0.89924285714285723</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -10350,13 +10362,17 @@
       <c r="F18" s="1">
         <v>0.90869999999999995</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.89970000000000006</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>0.91357999999999995</v>
+        <v>0.9107142857142857</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -11170,15 +11186,15 @@
       </c>
       <c r="B16" s="1">
         <f>Precision!K16</f>
-        <v>1.7999999999999999E-2</v>
+        <v>2.3957142857142854E-2</v>
       </c>
       <c r="C16" s="1">
         <f>Recall!K16</f>
-        <v>0.90212000000000003</v>
+        <v>0.89924285714285723</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>1.7647872016693471E-2</v>
+        <v>2.3335452330845677E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11204,15 +11220,15 @@
       </c>
       <c r="B18" s="1">
         <f>Precision!K18</f>
-        <v>1.84E-2</v>
+        <v>2.4600000000000004E-2</v>
       </c>
       <c r="C18" s="1">
         <f>Recall!K18</f>
-        <v>0.91357999999999995</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>1.8036730401939958E-2</v>
+        <v>2.3952987536656898E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">

--- a/2_design/asim/artifacts/testing/analyze-item.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC187C3-EF62-4493-B666-F21C5FA794F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5034B5-DC9E-4047-9D54-BCEDED68F8F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="6" r:id="rId1"/>
@@ -881,13 +881,13 @@
                   <c:v>3.3538049570698454E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3335452330845677E-2</c:v>
+                  <c:v>2.9906690482402441E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.3843793470341894E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3952987536656898E-2</c:v>
+                  <c:v>3.4145070540311316E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3.3535323828952593E-2</c:v>
@@ -8541,8 +8541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD571D8-A6EF-4FD2-AC2E-36D5484BA4FE}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9108,11 +9108,15 @@
       <c r="H16" s="1">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="I16" s="1">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>6.1199999999999997E-2</v>
+      </c>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>2.3957142857142854E-2</v>
+        <v>3.0944444444444441E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9176,11 +9180,15 @@
       <c r="H18" s="1">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="1">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>9.1700000000000004E-2</v>
+      </c>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>2.4600000000000004E-2</v>
+        <v>3.5500000000000004E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -9733,8 +9741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037ECD2-FD94-4DA2-BE1D-F9E27FEA143C}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10300,11 +10308,15 @@
       <c r="H16" s="1">
         <v>0.88900000000000001</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="I16" s="1">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.85170000000000001</v>
+      </c>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>0.89924285714285723</v>
+        <v>0.89177777777777778</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -10368,11 +10380,15 @@
       <c r="H18" s="1">
         <v>0.89970000000000006</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="1">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.79110000000000003</v>
+      </c>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>0.9107142857142857</v>
+        <v>0.89462222222222232</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -10925,8 +10941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8A42B3-E71A-4089-B0F9-46956E1D2CB1}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11186,15 +11202,15 @@
       </c>
       <c r="B16" s="1">
         <f>Precision!K16</f>
-        <v>2.3957142857142854E-2</v>
+        <v>3.0944444444444441E-2</v>
       </c>
       <c r="C16" s="1">
         <f>Recall!K16</f>
-        <v>0.89924285714285723</v>
+        <v>0.89177777777777778</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>2.3335452330845677E-2</v>
+        <v>2.9906690482402441E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11220,15 +11236,15 @@
       </c>
       <c r="B18" s="1">
         <f>Precision!K18</f>
-        <v>2.4600000000000004E-2</v>
+        <v>3.5500000000000004E-2</v>
       </c>
       <c r="C18" s="1">
         <f>Recall!K18</f>
-        <v>0.9107142857142857</v>
+        <v>0.89462222222222232</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>2.3952987536656898E-2</v>
+        <v>3.4145070540311316E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">

--- a/2_design/asim/artifacts/testing/analyze-item.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5034B5-DC9E-4047-9D54-BCEDED68F8F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630E0E5C-96E1-4F5D-A694-82C9FB83D9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="53">
   <si>
     <t>Cosine</t>
   </si>
@@ -194,6 +194,12 @@
   <si>
     <t>MMD</t>
   </si>
+  <si>
+    <t>CjacMD</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
 </sst>
 </file>
 
@@ -299,9 +305,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>MAE!$A$2:$A$33</c:f>
+              <c:f>MAE!$A$2:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>Cosine</c:v>
                 </c:pt>
@@ -360,42 +366,45 @@
                   <c:v>MMD</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>CjacMD</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>TMJ</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Feng</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Mu</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>TA</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>TAJ</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>TAN</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>TANJ</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>SMD</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>HSMD</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>HSMDJ</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>QTI</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>QTIJ</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>NNMS</c:v>
                 </c:pt>
               </c:strCache>
@@ -403,10 +412,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MAE!$K$2:$K$33</c:f>
+              <c:f>MAE!$K$2:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0.76212222222222215</c:v>
                 </c:pt>
@@ -465,42 +474,45 @@
                   <c:v>0.83805555555555555</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.75811111111111118</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0.75883333333333336</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>0.77746666666666675</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0.76255555555555554</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>0.75438888888888878</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>0.76635555555555557</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>0.75366666666666671</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>0.76116666666666666</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>0.76548888888888877</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>0.75819999999999999</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>0.76066666666666682</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.76146666666666674</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.75568888888888885</c:v>
                 </c:pt>
               </c:numCache>
@@ -730,9 +742,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'F1'!$A$2:$A$33</c:f>
+              <c:f>'F1'!$A$2:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>Cosine</c:v>
                 </c:pt>
@@ -791,42 +803,45 @@
                   <c:v>MMD</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>CjacMD</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>TMJ</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Feng</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Mu</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>TA</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>TAJ</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>TAN</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>TANJ</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>SMD</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>HSMD</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>HSMDJ</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>QTI</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>QTIJ</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>NNMS</c:v>
                 </c:pt>
               </c:strCache>
@@ -834,10 +849,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'F1'!$D$2:$D$33</c:f>
+              <c:f>'F1'!$D$2:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>3.3578804714597364E-2</c:v>
                 </c:pt>
@@ -896,42 +911,45 @@
                   <c:v>2.9442886263460658E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>1.2171093018570533E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>3.021416221385733E-2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>3.0326698377277979E-2</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>3.6505286055783126E-2</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>3.357922903134708E-2</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>3.3550424297960159E-2</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>3.6582858914580775E-2</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>3.6584105592890923E-2</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>2.9686573906123833E-2</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>3.003470008872999E-2</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>3.0284199292811734E-2</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>3.0321148146836219E-2</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>3.0172859872259462E-2</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>3.0190610571533834E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3328,7 +3346,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3369,7 +3387,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3738,10 +3756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F415299B-7611-4776-90FA-43332039FA40}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3846,7 +3864,7 @@
         <v>0.85970000000000002</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
+        <f t="shared" ref="K3:K34" si="0">AVERAGE(B3:J3)</f>
         <v>0.75986666666666669</v>
       </c>
     </row>
@@ -4464,468 +4482,486 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.7298</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.7329</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.73370000000000002</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.73829999999999996</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.74380000000000002</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.74829999999999997</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.75890000000000002</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.78110000000000002</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.85619999999999996</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75811111111111118</v>
+        <v>51</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>0.73029999999999995</v>
+        <v>0.7298</v>
       </c>
       <c r="C22" s="1">
-        <v>0.73329999999999995</v>
+        <v>0.7329</v>
       </c>
       <c r="D22" s="1">
-        <v>0.7339</v>
+        <v>0.73370000000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.73850000000000005</v>
+        <v>0.73829999999999996</v>
       </c>
       <c r="F22" s="1">
-        <v>0.74390000000000001</v>
+        <v>0.74380000000000002</v>
       </c>
       <c r="G22" s="1">
-        <v>0.74850000000000005</v>
+        <v>0.74829999999999997</v>
       </c>
       <c r="H22" s="1">
-        <v>0.75900000000000001</v>
+        <v>0.75890000000000002</v>
       </c>
       <c r="I22" s="1">
-        <v>0.78239999999999998</v>
+        <v>0.78110000000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.85970000000000002</v>
+        <v>0.85619999999999996</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.75883333333333336</v>
+        <v>0.75811111111111118</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>0.73709999999999998</v>
+        <v>0.73029999999999995</v>
       </c>
       <c r="C23" s="1">
-        <v>0.74219999999999997</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>0.74550000000000005</v>
+        <v>0.7339</v>
       </c>
       <c r="E23" s="1">
-        <v>0.75260000000000005</v>
+        <v>0.73850000000000005</v>
       </c>
       <c r="F23" s="1">
-        <v>0.7611</v>
+        <v>0.74390000000000001</v>
       </c>
       <c r="G23" s="1">
-        <v>0.77180000000000004</v>
+        <v>0.74850000000000005</v>
       </c>
       <c r="H23" s="1">
-        <v>0.78800000000000003</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>0.81530000000000002</v>
+        <v>0.78239999999999998</v>
       </c>
       <c r="J23" s="1">
-        <v>0.88360000000000005</v>
+        <v>0.85970000000000002</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.77746666666666675</v>
+        <v>0.75883333333333336</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
-        <v>0.7399</v>
+        <v>0.73709999999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>0.74209999999999998</v>
+        <v>0.74219999999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>0.7429</v>
+        <v>0.74550000000000005</v>
       </c>
       <c r="E24" s="1">
-        <v>0.74709999999999999</v>
+        <v>0.75260000000000005</v>
       </c>
       <c r="F24" s="1">
-        <v>0.75170000000000003</v>
+        <v>0.7611</v>
       </c>
       <c r="G24" s="1">
-        <v>0.75509999999999999</v>
+        <v>0.77180000000000004</v>
       </c>
       <c r="H24" s="1">
-        <v>0.76339999999999997</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="I24" s="1">
-        <v>0.78090000000000004</v>
+        <v>0.81530000000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.83989999999999998</v>
+        <v>0.88360000000000005</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>0.76255555555555554</v>
+        <v>0.77746666666666675</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>0.72719999999999996</v>
+        <v>0.7399</v>
       </c>
       <c r="C25" s="1">
-        <v>0.73019999999999996</v>
+        <v>0.74209999999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>0.73119999999999996</v>
+        <v>0.7429</v>
       </c>
       <c r="E25" s="1">
-        <v>0.73580000000000001</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="F25" s="1">
-        <v>0.74139999999999995</v>
+        <v>0.75170000000000003</v>
       </c>
       <c r="G25" s="1">
-        <v>0.74619999999999997</v>
+        <v>0.75509999999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>0.75649999999999995</v>
+        <v>0.76339999999999997</v>
       </c>
       <c r="I25" s="1">
-        <v>0.77790000000000004</v>
+        <v>0.78090000000000004</v>
       </c>
       <c r="J25" s="1">
-        <v>0.84309999999999996</v>
+        <v>0.83989999999999998</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>0.75438888888888878</v>
+        <v>0.76255555555555554</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>0.73409999999999997</v>
+        <v>0.72719999999999996</v>
       </c>
       <c r="C26" s="1">
-        <v>0.73650000000000004</v>
+        <v>0.73019999999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>0.73970000000000002</v>
+        <v>0.73119999999999996</v>
       </c>
       <c r="E26" s="1">
-        <v>0.74539999999999995</v>
+        <v>0.73580000000000001</v>
       </c>
       <c r="F26" s="1">
-        <v>0.75319999999999998</v>
+        <v>0.74139999999999995</v>
       </c>
       <c r="G26" s="1">
-        <v>0.7601</v>
+        <v>0.74619999999999997</v>
       </c>
       <c r="H26" s="1">
-        <v>0.77239999999999998</v>
+        <v>0.75649999999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>0.79590000000000005</v>
+        <v>0.77790000000000004</v>
       </c>
       <c r="J26" s="1">
-        <v>0.8599</v>
+        <v>0.84309999999999996</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>0.76635555555555557</v>
+        <v>0.75438888888888878</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>0.71640000000000004</v>
+        <v>0.73409999999999997</v>
       </c>
       <c r="C27" s="1">
-        <v>0.72</v>
+        <v>0.73650000000000004</v>
       </c>
       <c r="D27" s="1">
-        <v>0.72299999999999998</v>
+        <v>0.73970000000000002</v>
       </c>
       <c r="E27" s="1">
-        <v>0.72940000000000005</v>
+        <v>0.74539999999999995</v>
       </c>
       <c r="F27" s="1">
-        <v>0.73799999999999999</v>
+        <v>0.75319999999999998</v>
       </c>
       <c r="G27" s="1">
-        <v>0.74670000000000003</v>
+        <v>0.7601</v>
       </c>
       <c r="H27" s="1">
-        <v>0.76139999999999997</v>
+        <v>0.77239999999999998</v>
       </c>
       <c r="I27" s="1">
-        <v>0.78879999999999995</v>
+        <v>0.79590000000000005</v>
       </c>
       <c r="J27" s="1">
-        <v>0.85929999999999995</v>
+        <v>0.8599</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>0.75366666666666671</v>
+        <v>0.76635555555555557</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>0.74119999999999997</v>
+        <v>0.71640000000000004</v>
       </c>
       <c r="C28" s="1">
-        <v>0.74380000000000002</v>
+        <v>0.72</v>
       </c>
       <c r="D28" s="1">
-        <v>0.74460000000000004</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="E28" s="1">
-        <v>0.74890000000000001</v>
+        <v>0.72940000000000005</v>
       </c>
       <c r="F28" s="1">
-        <v>0.75370000000000004</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="G28" s="1">
-        <v>0.75690000000000002</v>
+        <v>0.74670000000000003</v>
       </c>
       <c r="H28" s="1">
-        <v>0.76480000000000004</v>
+        <v>0.76139999999999997</v>
       </c>
       <c r="I28" s="1">
-        <v>0.7792</v>
+        <v>0.78879999999999995</v>
       </c>
       <c r="J28" s="1">
-        <v>0.81740000000000002</v>
+        <v>0.85929999999999995</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.76116666666666666</v>
+        <v>0.75366666666666671</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
-        <v>0.73760000000000003</v>
+        <v>0.74119999999999997</v>
       </c>
       <c r="C29" s="1">
-        <v>0.74029999999999996</v>
+        <v>0.74380000000000002</v>
       </c>
       <c r="D29" s="1">
-        <v>0.74080000000000001</v>
+        <v>0.74460000000000004</v>
       </c>
       <c r="E29" s="1">
-        <v>0.74509999999999998</v>
+        <v>0.74890000000000001</v>
       </c>
       <c r="F29" s="1">
-        <v>0.75</v>
+        <v>0.75370000000000004</v>
       </c>
       <c r="G29" s="1">
-        <v>0.75409999999999999</v>
+        <v>0.75690000000000002</v>
       </c>
       <c r="H29" s="1">
-        <v>0.76419999999999999</v>
+        <v>0.76480000000000004</v>
       </c>
       <c r="I29" s="1">
-        <v>0.78710000000000002</v>
+        <v>0.7792</v>
       </c>
       <c r="J29" s="1">
-        <v>0.87019999999999997</v>
+        <v>0.81740000000000002</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.76548888888888877</v>
+        <v>0.76116666666666666</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>0.72619999999999996</v>
+        <v>0.73760000000000003</v>
       </c>
       <c r="C30" s="1">
-        <v>0.72929999999999995</v>
+        <v>0.74029999999999996</v>
       </c>
       <c r="D30" s="1">
-        <v>0.73019999999999996</v>
+        <v>0.74080000000000001</v>
       </c>
       <c r="E30" s="1">
-        <v>0.7349</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="F30" s="1">
-        <v>0.74109999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="G30" s="1">
-        <v>0.74670000000000003</v>
+        <v>0.75409999999999999</v>
       </c>
       <c r="H30" s="1">
-        <v>0.75970000000000004</v>
+        <v>0.76419999999999999</v>
       </c>
       <c r="I30" s="1">
-        <v>0.78759999999999997</v>
+        <v>0.78710000000000002</v>
       </c>
       <c r="J30" s="1">
-        <v>0.86809999999999998</v>
+        <v>0.87019999999999997</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.75819999999999999</v>
+        <v>0.76548888888888877</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>0.72330000000000005</v>
+        <v>0.72619999999999996</v>
       </c>
       <c r="C31" s="1">
-        <v>0.72650000000000003</v>
+        <v>0.72929999999999995</v>
       </c>
       <c r="D31" s="1">
-        <v>0.7278</v>
+        <v>0.73019999999999996</v>
       </c>
       <c r="E31" s="1">
-        <v>0.73260000000000003</v>
+        <v>0.7349</v>
       </c>
       <c r="F31" s="1">
-        <v>0.74</v>
+        <v>0.74109999999999998</v>
       </c>
       <c r="G31" s="1">
-        <v>0.74729999999999996</v>
+        <v>0.74670000000000003</v>
       </c>
       <c r="H31" s="1">
-        <v>0.76390000000000002</v>
+        <v>0.75970000000000004</v>
       </c>
       <c r="I31" s="1">
-        <v>0.7994</v>
+        <v>0.78759999999999997</v>
       </c>
       <c r="J31" s="1">
-        <v>0.88519999999999999</v>
+        <v>0.86809999999999998</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.76066666666666682</v>
+        <v>0.75819999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
-        <v>0.71599999999999997</v>
+        <v>0.72330000000000005</v>
       </c>
       <c r="C32" s="1">
-        <v>0.72</v>
+        <v>0.72650000000000003</v>
       </c>
       <c r="D32" s="1">
-        <v>0.72240000000000004</v>
+        <v>0.7278</v>
       </c>
       <c r="E32" s="1">
-        <v>0.72840000000000005</v>
+        <v>0.73260000000000003</v>
       </c>
       <c r="F32" s="1">
-        <v>0.73799999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="G32" s="1">
-        <v>0.74860000000000004</v>
+        <v>0.74729999999999996</v>
       </c>
       <c r="H32" s="1">
-        <v>0.77010000000000001</v>
+        <v>0.76390000000000002</v>
       </c>
       <c r="I32" s="1">
-        <v>0.81210000000000004</v>
+        <v>0.7994</v>
       </c>
       <c r="J32" s="1">
-        <v>0.89759999999999995</v>
+        <v>0.88519999999999999</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.76146666666666674</v>
+        <v>0.76066666666666682</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.72240000000000004</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.74860000000000004</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.77010000000000001</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.81210000000000004</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76146666666666674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>0.72030000000000005</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>0.72370000000000001</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>0.72509999999999997</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>0.73029999999999995</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>0.73740000000000006</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
         <v>0.74439999999999995</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H34" s="1">
         <v>0.75900000000000001</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I34" s="1">
         <v>0.7893</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34" s="1">
         <v>0.87170000000000003</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="0"/>
         <v>0.75568888888888885</v>
       </c>
@@ -4939,15 +4975,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845ED3B-1C35-4974-BD89-89002EC8961B}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -4978,8 +5014,11 @@
       <c r="K1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5014,8 +5053,12 @@
         <f>AVERAGE(B2:J2)</f>
         <v>0.93962222222222225</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <f>SQRT(K2)</f>
+        <v>0.96934112789163251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5047,11 +5090,15 @@
         <v>1.2213000000000001</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
+        <f t="shared" ref="K3:K34" si="0">AVERAGE(B3:J3)</f>
         <v>0.93901111111111091</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L34" si="1">SQRT(K3)</f>
+        <v>0.96902585678149522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5086,8 +5133,12 @@
         <f t="shared" si="0"/>
         <v>0.98997777777777785</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99497626995711708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5122,8 +5173,12 @@
         <f t="shared" si="0"/>
         <v>1.0769555555555554</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0377646918042429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5158,8 +5213,12 @@
         <f t="shared" si="0"/>
         <v>0.92904444444444445</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96386951629587525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5194,8 +5253,12 @@
         <f t="shared" si="0"/>
         <v>0.98492222222222203</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99243247741205143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5230,8 +5293,12 @@
         <f t="shared" si="0"/>
         <v>0.98558888888888896</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99276829567069125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5266,8 +5333,12 @@
         <f t="shared" si="0"/>
         <v>0.97982222222222226</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98985969825133413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -5302,8 +5373,12 @@
         <f t="shared" si="0"/>
         <v>0.97583333333333344</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98784276751582967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -5338,8 +5413,12 @@
         <f t="shared" si="0"/>
         <v>0.93610000000000015</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96752260955493963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -5374,8 +5453,12 @@
         <f t="shared" si="0"/>
         <v>0.94633333333333325</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97279665569600582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -5410,8 +5493,12 @@
         <f t="shared" si="0"/>
         <v>0.92832222222222227</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96349479615731304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5446,8 +5533,12 @@
         <f t="shared" si="0"/>
         <v>1.0415888888888887</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0205826222745951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -5482,8 +5573,12 @@
         <f t="shared" si="0"/>
         <v>0.92837777777777775</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96352362595723506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -5518,8 +5613,12 @@
         <f t="shared" si="0"/>
         <v>1.0425444444444443</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0210506571392255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -5554,8 +5653,12 @@
         <f t="shared" si="0"/>
         <v>0.95423333333333338</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97684867473592518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -5590,8 +5693,12 @@
         <f t="shared" si="0"/>
         <v>1.0877555555555556</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0429552030435227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -5626,8 +5733,12 @@
         <f t="shared" si="0"/>
         <v>0.94364444444444451</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97141363200463915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -5662,474 +5773,565 @@
         <f t="shared" si="0"/>
         <v>1.1408888888888891</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0681240044530826</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>0.85470000000000002</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>0.86599999999999999</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>0.87129999999999996</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>0.88</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <v>0.89329999999999998</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G22" s="1">
         <v>0.90769999999999995</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="1">
         <v>0.93559999999999999</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I22" s="1">
         <v>0.99770000000000003</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J22" s="1">
         <v>1.2130000000000001</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K22" s="1">
         <f t="shared" si="0"/>
         <v>0.93547777777777774</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="L22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96720100174564427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>0.85650000000000004</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>0.86719999999999997</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>0.87180000000000002</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>0.88049999999999995</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <v>0.89370000000000005</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
         <v>0.90790000000000004</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="1">
         <v>0.93579999999999997</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I23" s="1">
         <v>1.0006999999999999</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J23" s="1">
         <v>1.2230000000000001</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K23" s="1">
         <f t="shared" si="0"/>
         <v>0.93745555555555571</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="L23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96822288526741385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>0.86890000000000001</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>0.88319999999999999</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D24" s="1">
         <v>0.89270000000000005</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>0.90610000000000002</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F24" s="1">
         <v>0.92430000000000001</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G24" s="1">
         <v>0.9516</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H24" s="1">
         <v>0.99170000000000003</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I24" s="1">
         <v>1.0637000000000001</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J24" s="1">
         <v>1.2684</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K24" s="1">
         <f t="shared" si="0"/>
         <v>0.97228888888888898</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="L24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98604710277394403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>0.878</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>0.88729999999999998</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>0.89200000000000002</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>0.89949999999999997</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
         <v>0.91090000000000004</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G25" s="1">
         <v>0.92159999999999997</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H25" s="1">
         <v>0.94320000000000004</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I25" s="1">
         <v>0.99180000000000001</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J25" s="1">
         <v>1.1658999999999999</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K25" s="1">
         <f t="shared" si="0"/>
         <v>0.9433555555555555</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="L25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97126492552524279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>0.84889999999999999</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>0.86019999999999996</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>0.86560000000000004</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>0.87429999999999997</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F26" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G26" s="1">
         <v>0.90269999999999995</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H26" s="1">
         <v>0.92959999999999998</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I26" s="1">
         <v>0.98809999999999998</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J26" s="1">
         <v>1.1762999999999999</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K26" s="1">
         <f t="shared" si="0"/>
         <v>0.92596666666666672</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="L26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96227161792638705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1">
         <v>0.86819999999999997</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <v>0.87870000000000004</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <v>0.88829999999999998</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>0.90049999999999997</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F27" s="1">
         <v>0.91820000000000002</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G27" s="1">
         <v>0.93820000000000003</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H27" s="1">
         <v>0.97030000000000005</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I27" s="1">
         <v>1.0363</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J27" s="1">
         <v>1.2269000000000001</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K27" s="1">
         <f t="shared" si="0"/>
         <v>0.95840000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="L27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97897906004163338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>0.82750000000000001</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>0.84009999999999996</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>0.8498</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>0.86299999999999999</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F28" s="1">
         <v>0.88370000000000004</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G28" s="1">
         <v>0.90790000000000004</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H28" s="1">
         <v>0.94589999999999996</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I28" s="1">
         <v>1.0205</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J28" s="1">
         <v>1.2262</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K28" s="1">
         <f t="shared" si="0"/>
         <v>0.92939999999999989</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="L28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96405394039960224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>0.88080000000000003</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <v>0.8911</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="1">
         <v>0.89580000000000004</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>0.90390000000000004</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F29" s="1">
         <v>0.91510000000000002</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G29" s="1">
         <v>0.92479999999999996</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H29" s="1">
         <v>0.94450000000000001</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I29" s="1">
         <v>0.98240000000000005</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J29" s="1">
         <v>1.0894999999999999</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K29" s="1">
         <f t="shared" si="0"/>
         <v>0.93643333333333323</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="L29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96769485548561907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="1">
         <v>0.87250000000000005</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>0.88290000000000002</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D30" s="1">
         <v>0.8871</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <v>0.89490000000000003</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F30" s="1">
         <v>0.90720000000000001</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G30" s="1">
         <v>0.92010000000000003</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H30" s="1">
         <v>0.9466</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I30" s="1">
         <v>1.0111000000000001</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J30" s="1">
         <v>1.2521</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K30" s="1">
         <f t="shared" si="0"/>
         <v>0.95272222222222203</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="L30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97607490605087377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
         <v>0.84650000000000003</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>0.85819999999999996</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>0.86370000000000002</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <v>0.87290000000000001</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F31" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G31" s="1">
         <v>0.90569999999999995</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H31" s="1">
         <v>0.93989999999999996</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I31" s="1">
         <v>1.0168999999999999</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J31" s="1">
         <v>1.2467999999999999</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K31" s="1">
         <f t="shared" si="0"/>
         <v>0.93762222222222213</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="L31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9683089497790579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="1">
         <v>0.84089999999999998</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <v>0.8528</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="1">
         <v>0.85899999999999999</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E32" s="1">
         <v>0.86909999999999998</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F32" s="1">
         <v>0.8871</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G32" s="1">
         <v>0.90939999999999999</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H32" s="1">
         <v>0.95330000000000004</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I32" s="1">
         <v>1.0508999999999999</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J32" s="1">
         <v>1.2959000000000001</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K32" s="1">
         <f t="shared" si="0"/>
         <v>0.94648888888888882</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="L32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97287660517091723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="1">
         <v>0.82669999999999999</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <v>0.84099999999999997</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <v>0.84989999999999999</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E33" s="1">
         <v>0.86299999999999999</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F33" s="1">
         <v>0.88690000000000002</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G33" s="1">
         <v>0.91800000000000004</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H33" s="1">
         <v>0.97519999999999996</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I33" s="1">
         <v>1.0906</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J33" s="1">
         <v>1.3345</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K33" s="1">
         <f t="shared" si="0"/>
         <v>0.95397777777777781</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="L33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97671785986423831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>0.8347</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>0.84719999999999995</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>0.85370000000000001</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>0.86429999999999996</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>0.88149999999999995</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
         <v>0.90290000000000004</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H34" s="1">
         <v>0.94110000000000005</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I34" s="1">
         <v>1.0246999999999999</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34" s="1">
         <v>1.2592000000000001</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="0"/>
         <v>0.93436666666666668</v>
       </c>
+      <c r="L34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9666264359444483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6139,10 +6341,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10484FF-0F81-4946-89C5-3E5AAAADF83E}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6247,7 +6449,7 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
+        <f t="shared" ref="K3:K34" si="0">AVERAGE(B3:J3)</f>
         <v>0.37272222222222218</v>
       </c>
     </row>
@@ -6865,468 +7067,486 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.40450000000000003</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.39939999999999998</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.40179999999999999</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.39529999999999998</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.3881</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.37219999999999998</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.3402</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.37405555555555547</v>
+        <v>51</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>0.4012</v>
+        <v>0.40450000000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>0.39879999999999999</v>
+        <v>0.39939999999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>0.40079999999999999</v>
+        <v>0.40179999999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.4002</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="F22" s="1">
         <v>0.39529999999999998</v>
       </c>
       <c r="G22" s="1">
-        <v>0.3886</v>
+        <v>0.3881</v>
       </c>
       <c r="H22" s="1">
-        <v>0.37230000000000002</v>
+        <v>0.37219999999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>0.33929999999999999</v>
+        <v>0.3402</v>
       </c>
       <c r="J22" s="1">
-        <v>0.26200000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.3731666666666667</v>
+        <v>0.37405555555555547</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>0.40639999999999998</v>
+        <v>0.4012</v>
       </c>
       <c r="C23" s="1">
-        <v>0.39579999999999999</v>
+        <v>0.39879999999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>0.39929999999999999</v>
+        <v>0.40079999999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.39129999999999998</v>
+        <v>0.4002</v>
       </c>
       <c r="F23" s="1">
-        <v>0.38140000000000002</v>
+        <v>0.39529999999999998</v>
       </c>
       <c r="G23" s="1">
-        <v>0.36620000000000003</v>
+        <v>0.3886</v>
       </c>
       <c r="H23" s="1">
-        <v>0.34160000000000001</v>
+        <v>0.37230000000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>0.30309999999999998</v>
+        <v>0.33929999999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.2288</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.35710000000000003</v>
+        <v>0.3731666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
-        <v>0.4249</v>
+        <v>0.40639999999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>0.38109999999999999</v>
+        <v>0.39579999999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>0.3841</v>
+        <v>0.39929999999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.38350000000000001</v>
+        <v>0.39129999999999998</v>
       </c>
       <c r="F24" s="1">
-        <v>0.38</v>
+        <v>0.38140000000000002</v>
       </c>
       <c r="G24" s="1">
-        <v>0.378</v>
+        <v>0.36620000000000003</v>
       </c>
       <c r="H24" s="1">
-        <v>0.36709999999999998</v>
+        <v>0.34160000000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>0.34179999999999999</v>
+        <v>0.30309999999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.2702</v>
+        <v>0.2288</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>0.3678555555555556</v>
+        <v>0.35710000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>0.44819999999999999</v>
+        <v>0.4249</v>
       </c>
       <c r="C25" s="1">
-        <v>0.40310000000000001</v>
+        <v>0.38109999999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>0.40510000000000002</v>
+        <v>0.3841</v>
       </c>
       <c r="E25" s="1">
-        <v>0.40489999999999998</v>
+        <v>0.38350000000000001</v>
       </c>
       <c r="F25" s="1">
-        <v>0.39860000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="G25" s="1">
-        <v>0.39050000000000001</v>
+        <v>0.378</v>
       </c>
       <c r="H25" s="1">
-        <v>0.3755</v>
+        <v>0.36709999999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>0.34229999999999999</v>
+        <v>0.34179999999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.26629999999999998</v>
+        <v>0.2702</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>0.38161111111111112</v>
+        <v>0.3678555555555556</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>0.43209999999999998</v>
+        <v>0.44819999999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>0.38900000000000001</v>
+        <v>0.40310000000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>0.38650000000000001</v>
+        <v>0.40510000000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.38250000000000001</v>
+        <v>0.40489999999999998</v>
       </c>
       <c r="F26" s="1">
-        <v>0.37069999999999997</v>
+        <v>0.39860000000000001</v>
       </c>
       <c r="G26" s="1">
-        <v>0.35920000000000002</v>
+        <v>0.39050000000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>0.33929999999999999</v>
+        <v>0.3755</v>
       </c>
       <c r="I26" s="1">
-        <v>0.3075</v>
+        <v>0.34229999999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.24660000000000001</v>
+        <v>0.26629999999999998</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>0.3570444444444445</v>
+        <v>0.38161111111111112</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>0.46560000000000001</v>
+        <v>0.43209999999999998</v>
       </c>
       <c r="C27" s="1">
-        <v>0.42020000000000002</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D27" s="1">
-        <v>0.41670000000000001</v>
+        <v>0.38650000000000001</v>
       </c>
       <c r="E27" s="1">
-        <v>0.41210000000000002</v>
+        <v>0.38250000000000001</v>
       </c>
       <c r="F27" s="1">
-        <v>0.39679999999999999</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="G27" s="1">
-        <v>0.38009999999999999</v>
+        <v>0.35920000000000002</v>
       </c>
       <c r="H27" s="1">
-        <v>0.35649999999999998</v>
+        <v>0.33929999999999999</v>
       </c>
       <c r="I27" s="1">
-        <v>0.31740000000000002</v>
+        <v>0.3075</v>
       </c>
       <c r="J27" s="1">
-        <v>0.24690000000000001</v>
+        <v>0.24660000000000001</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>0.37914444444444445</v>
+        <v>0.3570444444444445</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>0.42459999999999998</v>
+        <v>0.46560000000000001</v>
       </c>
       <c r="C28" s="1">
-        <v>0.38109999999999999</v>
+        <v>0.42020000000000002</v>
       </c>
       <c r="D28" s="1">
-        <v>0.3836</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="E28" s="1">
-        <v>0.38219999999999998</v>
+        <v>0.41210000000000002</v>
       </c>
       <c r="F28" s="1">
-        <v>0.37909999999999999</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="G28" s="1">
-        <v>0.37730000000000002</v>
+        <v>0.38009999999999999</v>
       </c>
       <c r="H28" s="1">
-        <v>0.36680000000000001</v>
+        <v>0.35649999999999998</v>
       </c>
       <c r="I28" s="1">
-        <v>0.35289999999999999</v>
+        <v>0.31740000000000002</v>
       </c>
       <c r="J28" s="1">
-        <v>0.31580000000000003</v>
+        <v>0.24690000000000001</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.37371111111111111</v>
+        <v>0.37914444444444445</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
-        <v>0.43209999999999998</v>
+        <v>0.42459999999999998</v>
       </c>
       <c r="C29" s="1">
-        <v>0.38950000000000001</v>
+        <v>0.38109999999999999</v>
       </c>
       <c r="D29" s="1">
-        <v>0.39150000000000001</v>
+        <v>0.3836</v>
       </c>
       <c r="E29" s="1">
-        <v>0.3916</v>
+        <v>0.38219999999999998</v>
       </c>
       <c r="F29" s="1">
-        <v>0.38729999999999998</v>
+        <v>0.37909999999999999</v>
       </c>
       <c r="G29" s="1">
-        <v>0.38350000000000001</v>
+        <v>0.37730000000000002</v>
       </c>
       <c r="H29" s="1">
-        <v>0.36799999999999999</v>
+        <v>0.36680000000000001</v>
       </c>
       <c r="I29" s="1">
-        <v>0.3362</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="J29" s="1">
-        <v>0.2515</v>
+        <v>0.31580000000000003</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.37013333333333331</v>
+        <v>0.37371111111111111</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>0.41320000000000001</v>
+        <v>0.43209999999999998</v>
       </c>
       <c r="C30" s="1">
-        <v>0.40720000000000001</v>
+        <v>0.38950000000000001</v>
       </c>
       <c r="D30" s="1">
-        <v>0.40820000000000001</v>
+        <v>0.39150000000000001</v>
       </c>
       <c r="E30" s="1">
-        <v>0.4078</v>
+        <v>0.3916</v>
       </c>
       <c r="F30" s="1">
-        <v>0.40029999999999999</v>
+        <v>0.38729999999999998</v>
       </c>
       <c r="G30" s="1">
-        <v>0.38900000000000001</v>
+        <v>0.38350000000000001</v>
       </c>
       <c r="H30" s="1">
         <v>0.36799999999999999</v>
       </c>
       <c r="I30" s="1">
-        <v>0.32890000000000003</v>
+        <v>0.3362</v>
       </c>
       <c r="J30" s="1">
-        <v>0.25530000000000003</v>
+        <v>0.2515</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.37532222222222222</v>
+        <v>0.37013333333333331</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>0.41789999999999999</v>
+        <v>0.41320000000000001</v>
       </c>
       <c r="C31" s="1">
-        <v>0.41520000000000001</v>
+        <v>0.40720000000000001</v>
       </c>
       <c r="D31" s="1">
-        <v>0.4128</v>
+        <v>0.40820000000000001</v>
       </c>
       <c r="E31" s="1">
-        <v>0.41170000000000001</v>
+        <v>0.4078</v>
       </c>
       <c r="F31" s="1">
-        <v>0.40150000000000002</v>
+        <v>0.40029999999999999</v>
       </c>
       <c r="G31" s="1">
-        <v>0.38550000000000001</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="H31" s="1">
-        <v>0.35949999999999999</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="I31" s="1">
-        <v>0.31409999999999999</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="J31" s="1">
-        <v>0.24590000000000001</v>
+        <v>0.25530000000000003</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.37378888888888884</v>
+        <v>0.37532222222222222</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
-        <v>0.43049999999999999</v>
+        <v>0.41789999999999999</v>
       </c>
       <c r="C32" s="1">
-        <v>0.42509999999999998</v>
+        <v>0.41520000000000001</v>
       </c>
       <c r="D32" s="1">
-        <v>0.41639999999999999</v>
+        <v>0.4128</v>
       </c>
       <c r="E32" s="1">
-        <v>0.4143</v>
+        <v>0.41170000000000001</v>
       </c>
       <c r="F32" s="1">
-        <v>0.39900000000000002</v>
+        <v>0.40150000000000002</v>
       </c>
       <c r="G32" s="1">
-        <v>0.37769999999999998</v>
+        <v>0.38550000000000001</v>
       </c>
       <c r="H32" s="1">
-        <v>0.34810000000000002</v>
+        <v>0.35949999999999999</v>
       </c>
       <c r="I32" s="1">
-        <v>0.30080000000000001</v>
+        <v>0.31409999999999999</v>
       </c>
       <c r="J32" s="1">
-        <v>0.24</v>
+        <v>0.24590000000000001</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.37243333333333328</v>
+        <v>0.37378888888888884</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.43049999999999999</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.42509999999999998</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.41639999999999999</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.4143</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.37769999999999998</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37243333333333328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>0.42370000000000002</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>0.41360000000000002</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>0.4128</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>0.4123</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>0.40229999999999999</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
         <v>0.38740000000000002</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H34" s="1">
         <v>0.36649999999999999</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I34" s="1">
         <v>0.3261</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34" s="1">
         <v>0.25459999999999999</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="0"/>
         <v>0.37769999999999992</v>
       </c>
@@ -7339,10 +7559,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2A596-55B6-400A-BEAB-8F453735749D}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7447,7 +7667,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
+        <f t="shared" ref="K3:K34" si="0">AVERAGE(B3:J3)</f>
         <v>0.28735555555555553</v>
       </c>
     </row>
@@ -8065,468 +8285,486 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.18740000000000001</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.24909999999999999</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.25990000000000002</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.30480000000000002</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.2114</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.1517</v>
-      </c>
-      <c r="I21" s="1">
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="J21" s="1">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.19598888888888888</v>
+        <v>51</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>0.23400000000000001</v>
+        <v>0.18740000000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>0.28339999999999999</v>
+        <v>0.24909999999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>0.31319999999999998</v>
+        <v>0.25990000000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.33439999999999998</v>
+        <v>0.30480000000000002</v>
       </c>
       <c r="F22" s="1">
-        <v>0.29580000000000001</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="G22" s="1">
-        <v>0.22969999999999999</v>
+        <v>0.2114</v>
       </c>
       <c r="H22" s="1">
-        <v>0.18759999999999999</v>
+        <v>0.1517</v>
       </c>
       <c r="I22" s="1">
-        <v>0.115</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="J22" s="1">
-        <v>5.0700000000000002E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.2270888888888889</v>
+        <v>0.19598888888888888</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>0.24660000000000001</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>0.28939999999999999</v>
+        <v>0.28339999999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>0.33160000000000001</v>
+        <v>0.31319999999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.31390000000000001</v>
+        <v>0.33439999999999998</v>
       </c>
       <c r="F23" s="1">
-        <v>0.29830000000000001</v>
+        <v>0.29580000000000001</v>
       </c>
       <c r="G23" s="1">
-        <v>0.24440000000000001</v>
+        <v>0.22969999999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>0.17399999999999999</v>
+        <v>0.18759999999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>0.12570000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="J23" s="1">
-        <v>4.7800000000000002E-2</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.23018888888888889</v>
+        <v>0.2270888888888889</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
-        <v>0.2752</v>
+        <v>0.24660000000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>0.41149999999999998</v>
+        <v>0.28939999999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>0.30580000000000002</v>
+        <v>0.33160000000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.21510000000000001</v>
+        <v>0.31390000000000001</v>
       </c>
       <c r="F24" s="1">
-        <v>0.1946</v>
+        <v>0.29830000000000001</v>
       </c>
       <c r="G24" s="1">
-        <v>0.18110000000000001</v>
+        <v>0.24440000000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>0.1225</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>0.14940000000000001</v>
+        <v>0.12570000000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>2.4299999999999999E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>0.20883333333333334</v>
+        <v>0.23018888888888889</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>0.68759999999999999</v>
+        <v>0.2752</v>
       </c>
       <c r="C25" s="1">
-        <v>0.53649999999999998</v>
+        <v>0.41149999999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>0.309</v>
+        <v>0.30580000000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.2616</v>
+        <v>0.21510000000000001</v>
       </c>
       <c r="F25" s="1">
-        <v>0.23280000000000001</v>
+        <v>0.1946</v>
       </c>
       <c r="G25" s="1">
-        <v>0.21199999999999999</v>
+        <v>0.18110000000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>0.14399999999999999</v>
+        <v>0.1225</v>
       </c>
       <c r="I25" s="1">
-        <v>0.28079999999999999</v>
+        <v>0.14940000000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>3.27E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>0.29966666666666675</v>
+        <v>0.20883333333333334</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>0.2777</v>
+        <v>0.68759999999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>0.40739999999999998</v>
+        <v>0.53649999999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>0.2472</v>
+        <v>0.309</v>
       </c>
       <c r="E26" s="1">
-        <v>0.2127</v>
+        <v>0.2616</v>
       </c>
       <c r="F26" s="1">
-        <v>0.19139999999999999</v>
+        <v>0.23280000000000001</v>
       </c>
       <c r="G26" s="1">
-        <v>0.1749</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>0.11799999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>0.1454</v>
+        <v>0.28079999999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>2.1899999999999999E-2</v>
+        <v>3.27E-2</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>0.19962222222222226</v>
+        <v>0.29966666666666675</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>0.71809999999999996</v>
+        <v>0.2777</v>
       </c>
       <c r="C27" s="1">
-        <v>0.52729999999999999</v>
+        <v>0.40739999999999998</v>
       </c>
       <c r="D27" s="1">
-        <v>0.30530000000000002</v>
+        <v>0.2472</v>
       </c>
       <c r="E27" s="1">
-        <v>0.25900000000000001</v>
+        <v>0.2127</v>
       </c>
       <c r="F27" s="1">
-        <v>0.22939999999999999</v>
+        <v>0.19139999999999999</v>
       </c>
       <c r="G27" s="1">
-        <v>0.20780000000000001</v>
+        <v>0.1749</v>
       </c>
       <c r="H27" s="1">
-        <v>0.1406</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="I27" s="1">
-        <v>0.28160000000000002</v>
+        <v>0.1454</v>
       </c>
       <c r="J27" s="1">
-        <v>3.15E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>0.3000666666666667</v>
+        <v>0.19962222222222226</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>0.54710000000000003</v>
+        <v>0.71809999999999996</v>
       </c>
       <c r="C28" s="1">
-        <v>0.55420000000000003</v>
+        <v>0.52729999999999999</v>
       </c>
       <c r="D28" s="1">
-        <v>0.69489999999999996</v>
+        <v>0.30530000000000002</v>
       </c>
       <c r="E28" s="1">
-        <v>0.32190000000000002</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="F28" s="1">
-        <v>0.30230000000000001</v>
+        <v>0.22939999999999999</v>
       </c>
       <c r="G28" s="1">
-        <v>0.3024</v>
+        <v>0.20780000000000001</v>
       </c>
       <c r="H28" s="1">
-        <v>0.42420000000000002</v>
+        <v>0.1406</v>
       </c>
       <c r="I28" s="1">
-        <v>0.5675</v>
+        <v>0.28160000000000002</v>
       </c>
       <c r="J28" s="1">
-        <v>9.1600000000000001E-2</v>
+        <v>3.15E-2</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.4229</v>
+        <v>0.3000666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
-        <v>0.55659999999999998</v>
+        <v>0.54710000000000003</v>
       </c>
       <c r="C29" s="1">
-        <v>0.61180000000000001</v>
+        <v>0.55420000000000003</v>
       </c>
       <c r="D29" s="1">
-        <v>0.53210000000000002</v>
+        <v>0.69489999999999996</v>
       </c>
       <c r="E29" s="1">
-        <v>0.32979999999999998</v>
+        <v>0.32190000000000002</v>
       </c>
       <c r="F29" s="1">
-        <v>0.30009999999999998</v>
+        <v>0.30230000000000001</v>
       </c>
       <c r="G29" s="1">
-        <v>0.30349999999999999</v>
+        <v>0.3024</v>
       </c>
       <c r="H29" s="1">
-        <v>0.1275</v>
+        <v>0.42420000000000002</v>
       </c>
       <c r="I29" s="1">
-        <v>0.56910000000000005</v>
+        <v>0.5675</v>
       </c>
       <c r="J29" s="1">
-        <v>9.0999999999999998E-2</v>
+        <v>9.1600000000000001E-2</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.38016666666666671</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>0.3967</v>
+        <v>0.55659999999999998</v>
       </c>
       <c r="C30" s="1">
-        <v>0.5272</v>
+        <v>0.61180000000000001</v>
       </c>
       <c r="D30" s="1">
-        <v>0.95350000000000001</v>
+        <v>0.53210000000000002</v>
       </c>
       <c r="E30" s="1">
-        <v>0.37090000000000001</v>
+        <v>0.32979999999999998</v>
       </c>
       <c r="F30" s="1">
-        <v>0.27489999999999998</v>
+        <v>0.30009999999999998</v>
       </c>
       <c r="G30" s="1">
-        <v>0.22140000000000001</v>
+        <v>0.30349999999999999</v>
       </c>
       <c r="H30" s="1">
-        <v>0.15579999999999999</v>
+        <v>0.1275</v>
       </c>
       <c r="I30" s="1">
-        <v>0.107</v>
+        <v>0.56910000000000005</v>
       </c>
       <c r="J30" s="1">
-        <v>3.9100000000000003E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.33850000000000002</v>
+        <v>0.38016666666666671</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>0.26800000000000002</v>
+        <v>0.3967</v>
       </c>
       <c r="C31" s="1">
-        <v>0.41389999999999999</v>
+        <v>0.5272</v>
       </c>
       <c r="D31" s="1">
-        <v>0.86899999999999999</v>
+        <v>0.95350000000000001</v>
       </c>
       <c r="E31" s="1">
-        <v>0.2858</v>
+        <v>0.37090000000000001</v>
       </c>
       <c r="F31" s="1">
-        <v>0.23269999999999999</v>
+        <v>0.27489999999999998</v>
       </c>
       <c r="G31" s="1">
-        <v>0.18590000000000001</v>
+        <v>0.22140000000000001</v>
       </c>
       <c r="H31" s="1">
-        <v>0.1293</v>
+        <v>0.15579999999999999</v>
       </c>
       <c r="I31" s="1">
-        <v>8.6900000000000005E-2</v>
+        <v>0.107</v>
       </c>
       <c r="J31" s="1">
-        <v>5.0299999999999997E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.2802</v>
+        <v>0.33850000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
-        <v>0.25259999999999999</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="C32" s="1">
-        <v>0.4123</v>
+        <v>0.41389999999999999</v>
       </c>
       <c r="D32" s="1">
-        <v>0.86539999999999995</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E32" s="1">
-        <v>0.35239999999999999</v>
+        <v>0.2858</v>
       </c>
       <c r="F32" s="1">
-        <v>0.2303</v>
+        <v>0.23269999999999999</v>
       </c>
       <c r="G32" s="1">
-        <v>0.18379999999999999</v>
+        <v>0.18590000000000001</v>
       </c>
       <c r="H32" s="1">
-        <v>0.2054</v>
+        <v>0.1293</v>
       </c>
       <c r="I32" s="1">
-        <v>8.8200000000000001E-2</v>
+        <v>8.6900000000000005E-2</v>
       </c>
       <c r="J32" s="1">
-        <v>3.15E-2</v>
+        <v>5.0299999999999997E-2</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.29132222222222226</v>
+        <v>0.2802</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.25259999999999999</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.4123</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.2303</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.18379999999999999</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.2054</v>
+      </c>
+      <c r="I33" s="1">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3.15E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29132222222222226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>0.15709999999999999</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>0.22739999999999999</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>0.2661</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>0.2349</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>0.40350000000000003</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
         <v>0.36599999999999999</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H34" s="1">
         <v>0.30640000000000001</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I34" s="1">
         <v>0.21640000000000001</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34" s="1">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="0"/>
         <v>0.25217777777777778</v>
       </c>
@@ -8539,10 +8777,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD571D8-A6EF-4FD2-AC2E-36D5484BA4FE}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8647,7 +8885,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
+        <f t="shared" ref="K3:K34" si="0">AVERAGE(B3:J3)</f>
         <v>3.1400000000000004E-2</v>
       </c>
     </row>
@@ -9265,151 +9503,139 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1">
-        <v>6.4999999999999997E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="C21" s="1">
-        <v>1.2200000000000001E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="D21" s="1">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2.98E-2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>3.5900000000000001E-2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="I21" s="1">
-        <v>5.0500000000000003E-2</v>
-      </c>
-      <c r="J21" s="1">
-        <v>6.1899999999999997E-2</v>
-      </c>
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>3.1244444444444446E-2</v>
+        <v>1.2333333333333335E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>6.6E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="C22" s="1">
-        <v>1.23E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>1.8100000000000002E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="E22" s="1">
-        <v>2.4E-2</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="F22" s="1">
-        <v>0.03</v>
+        <v>2.98E-2</v>
       </c>
       <c r="G22" s="1">
-        <v>3.61E-2</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="H22" s="1">
-        <v>4.2799999999999998E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="I22" s="1">
-        <v>5.0599999999999999E-2</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="J22" s="1">
-        <v>6.1800000000000001E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>3.1366666666666668E-2</v>
+        <v>3.1244444444444446E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>7.1000000000000004E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="C23" s="1">
-        <v>1.32E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="D23" s="1">
-        <v>1.95E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F23" s="1">
-        <v>3.27E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G23" s="1">
-        <v>3.9699999999999999E-2</v>
+        <v>3.61E-2</v>
       </c>
       <c r="H23" s="1">
-        <v>4.7600000000000003E-2</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="I23" s="1">
-        <v>0.06</v>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="J23" s="1">
-        <v>9.6500000000000002E-2</v>
+        <v>6.1800000000000001E-2</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>3.8033333333333336E-2</v>
+        <v>3.1366666666666668E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
-        <v>6.4999999999999997E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="C24" s="1">
-        <v>1.2200000000000001E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="D24" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="E24" s="1">
-        <v>2.3900000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F24" s="1">
-        <v>0.03</v>
+        <v>3.27E-2</v>
       </c>
       <c r="G24" s="1">
-        <v>3.6400000000000002E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="H24" s="1">
-        <v>4.3799999999999999E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="I24" s="1">
-        <v>5.4899999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="J24" s="1">
-        <v>8.8099999999999998E-2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>3.4866666666666671E-2</v>
+        <v>3.8033333333333336E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>6.4999999999999997E-3</v>
@@ -9418,7 +9644,7 @@
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>1.7899999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E25" s="1">
         <v>2.3900000000000001E-2</v>
@@ -9436,52 +9662,52 @@
         <v>5.4899999999999997E-2</v>
       </c>
       <c r="J25" s="1">
-        <v>8.7900000000000006E-2</v>
+        <v>8.8099999999999998E-2</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>3.4833333333333334E-2</v>
+        <v>3.4866666666666671E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>6.8999999999999999E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="C26" s="1">
-        <v>1.2699999999999999E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>1.8700000000000001E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="E26" s="1">
-        <v>2.4899999999999999E-2</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="F26" s="1">
-        <v>3.1199999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G26" s="1">
-        <v>3.8199999999999998E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="H26" s="1">
-        <v>4.65E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="I26" s="1">
-        <v>6.0400000000000002E-2</v>
+        <v>5.4899999999999997E-2</v>
       </c>
       <c r="J26" s="1">
-        <v>0.1038</v>
+        <v>8.7900000000000006E-2</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>3.8144444444444446E-2</v>
+        <v>3.4833333333333334E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>6.8999999999999999E-3</v>
@@ -9490,13 +9716,13 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="D27" s="1">
-        <v>1.8599999999999998E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="E27" s="1">
         <v>2.4899999999999999E-2</v>
       </c>
       <c r="F27" s="1">
-        <v>3.1300000000000001E-2</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="G27" s="1">
         <v>3.8199999999999998E-2</v>
@@ -9517,79 +9743,79 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>6.4999999999999997E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="C28" s="1">
-        <v>1.21E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D28" s="1">
-        <v>1.7899999999999999E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="E28" s="1">
-        <v>2.3699999999999999E-2</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="F28" s="1">
-        <v>2.9700000000000001E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="G28" s="1">
-        <v>3.5700000000000003E-2</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="H28" s="1">
-        <v>4.2099999999999999E-2</v>
+        <v>4.65E-2</v>
       </c>
       <c r="I28" s="1">
-        <v>4.9099999999999998E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="J28" s="1">
-        <v>5.9299999999999999E-2</v>
+        <v>0.1038</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>3.067777777777778E-2</v>
+        <v>3.8144444444444446E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
-        <v>6.6E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="C29" s="1">
-        <v>1.23E-2</v>
+        <v>1.21E-2</v>
       </c>
       <c r="D29" s="1">
-        <v>1.8100000000000002E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="E29" s="1">
-        <v>2.4E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="F29" s="1">
-        <v>0.03</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="G29" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="H29" s="1">
-        <v>4.2599999999999999E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="I29" s="1">
-        <v>0.05</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="J29" s="1">
-        <v>5.9900000000000002E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>3.1055555555555558E-2</v>
+        <v>3.067777777777778E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
         <v>6.6E-3</v>
@@ -9607,61 +9833,61 @@
         <v>0.03</v>
       </c>
       <c r="G30" s="1">
-        <v>3.61E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H30" s="1">
-        <v>4.2799999999999998E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="I30" s="1">
-        <v>5.0500000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J30" s="1">
-        <v>6.1499999999999999E-2</v>
+        <v>5.9900000000000002E-2</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>3.1322222222222224E-2</v>
+        <v>3.1055555555555558E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
         <v>6.6E-3</v>
       </c>
       <c r="C31" s="1">
-        <v>1.24E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>1.83E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>2.4199999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F31" s="1">
-        <v>3.0200000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G31" s="1">
-        <v>3.6299999999999999E-2</v>
+        <v>3.61E-2</v>
       </c>
       <c r="H31" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="I31" s="1">
-        <v>5.04E-2</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="J31" s="1">
-        <v>6.0900000000000003E-2</v>
+        <v>6.1499999999999999E-2</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>3.1366666666666668E-2</v>
+        <v>3.1322222222222224E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
         <v>6.6E-3</v>
@@ -9670,63 +9896,99 @@
         <v>1.24E-2</v>
       </c>
       <c r="D32" s="1">
-        <v>1.8200000000000001E-2</v>
+        <v>1.83E-2</v>
       </c>
       <c r="E32" s="1">
-        <v>2.41E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="F32" s="1">
-        <v>3.0099999999999998E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="G32" s="1">
-        <v>3.6200000000000003E-2</v>
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="H32" s="1">
-        <v>4.2799999999999998E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="I32" s="1">
-        <v>0.05</v>
+        <v>5.04E-2</v>
       </c>
       <c r="J32" s="1">
-        <v>6.0499999999999998E-2</v>
+        <v>6.0900000000000003E-2</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>3.121111111111111E-2</v>
+        <v>3.1366666666666668E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1">
-        <v>6.4999999999999997E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="C33" s="1">
-        <v>1.2200000000000001E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="D33" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="E33" s="1">
-        <v>2.3800000000000002E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="F33" s="1">
-        <v>2.9899999999999999E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="G33" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="H33" s="1">
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="I33" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J33" s="1">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>3.121111111111111E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="I34" s="1">
         <v>5.04E-2</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34" s="1">
         <v>6.1400000000000003E-2</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="0"/>
         <v>3.1222222222222221E-2</v>
       </c>
@@ -9739,10 +10001,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037ECD2-FD94-4DA2-BE1D-F9E27FEA143C}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9847,7 +10109,7 @@
         <v>0.84830000000000005</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
+        <f t="shared" ref="K3:K34" si="0">AVERAGE(B3:J3)</f>
         <v>0.91451111111111105</v>
       </c>
     </row>
@@ -10465,468 +10727,492 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1">
-        <v>0.9365</v>
+        <v>0.9294</v>
       </c>
       <c r="C21" s="1">
-        <v>0.93210000000000004</v>
+        <v>0.92359999999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>0.93159999999999998</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.92869999999999997</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.92520000000000002</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.91549999999999998</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.90129999999999999</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.85260000000000002</v>
-      </c>
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>0.91627777777777786</v>
+        <v>0.92523333333333335</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>0.93559999999999999</v>
+        <v>0.9365</v>
       </c>
       <c r="C22" s="1">
-        <v>0.93140000000000001</v>
+        <v>0.93210000000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>0.93100000000000005</v>
+        <v>0.93159999999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.92789999999999995</v>
+        <v>0.92869999999999997</v>
       </c>
       <c r="F22" s="1">
-        <v>0.92420000000000002</v>
+        <v>0.92520000000000002</v>
       </c>
       <c r="G22" s="1">
-        <v>0.92179999999999995</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="H22" s="1">
-        <v>0.91320000000000001</v>
+        <v>0.91549999999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>0.89890000000000003</v>
+        <v>0.90129999999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.84819999999999995</v>
+        <v>0.85260000000000002</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.914688888888889</v>
+        <v>0.91627777777777786</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>0.94030000000000002</v>
+        <v>0.93559999999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>0.93620000000000003</v>
+        <v>0.93140000000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>0.93410000000000004</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="E23" s="1">
-        <v>0.93059999999999998</v>
+        <v>0.92789999999999995</v>
       </c>
       <c r="F23" s="1">
-        <v>0.92759999999999998</v>
+        <v>0.92420000000000002</v>
       </c>
       <c r="G23" s="1">
-        <v>0.92300000000000004</v>
+        <v>0.92179999999999995</v>
       </c>
       <c r="H23" s="1">
-        <v>0.91249999999999998</v>
+        <v>0.91320000000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>0.89359999999999995</v>
+        <v>0.89890000000000003</v>
       </c>
       <c r="J23" s="1">
-        <v>0.77969999999999995</v>
+        <v>0.84819999999999995</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.90862222222222222</v>
+        <v>0.914688888888889</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
-        <v>0.93389999999999995</v>
+        <v>0.94030000000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>0.92920000000000003</v>
+        <v>0.93620000000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>0.92910000000000004</v>
+        <v>0.93410000000000004</v>
       </c>
       <c r="E24" s="1">
-        <v>0.92649999999999999</v>
+        <v>0.93059999999999998</v>
       </c>
       <c r="F24" s="1">
-        <v>0.92279999999999995</v>
+        <v>0.92759999999999998</v>
       </c>
       <c r="G24" s="1">
-        <v>0.92179999999999995</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="H24" s="1">
-        <v>0.91390000000000005</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="I24" s="1">
-        <v>0.89990000000000003</v>
+        <v>0.89359999999999995</v>
       </c>
       <c r="J24" s="1">
-        <v>0.8075</v>
+        <v>0.77969999999999995</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>0.90939999999999999</v>
+        <v>0.90862222222222222</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>0.93730000000000002</v>
+        <v>0.93389999999999995</v>
       </c>
       <c r="C25" s="1">
-        <v>0.93289999999999995</v>
+        <v>0.92920000000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>0.93210000000000004</v>
+        <v>0.92910000000000004</v>
       </c>
       <c r="E25" s="1">
-        <v>0.92989999999999995</v>
+        <v>0.92649999999999999</v>
       </c>
       <c r="F25" s="1">
-        <v>0.92600000000000005</v>
+        <v>0.92279999999999995</v>
       </c>
       <c r="G25" s="1">
-        <v>0.92300000000000004</v>
+        <v>0.92179999999999995</v>
       </c>
       <c r="H25" s="1">
-        <v>0.91490000000000005</v>
+        <v>0.91390000000000005</v>
       </c>
       <c r="I25" s="1">
-        <v>0.89839999999999998</v>
+        <v>0.89990000000000003</v>
       </c>
       <c r="J25" s="1">
-        <v>0.80410000000000004</v>
+        <v>0.8075</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>0.91095555555555541</v>
+        <v>0.90939999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>0.93149999999999999</v>
+        <v>0.93730000000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>0.92889999999999995</v>
+        <v>0.93289999999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>0.92530000000000001</v>
+        <v>0.93210000000000004</v>
       </c>
       <c r="E26" s="1">
-        <v>0.92230000000000001</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="F26" s="1">
-        <v>0.9163</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="G26" s="1">
-        <v>0.9113</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="H26" s="1">
-        <v>0.8992</v>
+        <v>0.91490000000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>0.87539999999999996</v>
+        <v>0.89839999999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>0.73219999999999996</v>
+        <v>0.80410000000000004</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>0.89359999999999984</v>
+        <v>0.91095555555555541</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>0.9325</v>
+        <v>0.93149999999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>0.93010000000000004</v>
+        <v>0.92889999999999995</v>
       </c>
       <c r="D27" s="1">
-        <v>0.92610000000000003</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="E27" s="1">
-        <v>0.92290000000000005</v>
+        <v>0.92230000000000001</v>
       </c>
       <c r="F27" s="1">
-        <v>0.91769999999999996</v>
+        <v>0.9163</v>
       </c>
       <c r="G27" s="1">
-        <v>0.91269999999999996</v>
+        <v>0.9113</v>
       </c>
       <c r="H27" s="1">
-        <v>0.90059999999999996</v>
+        <v>0.8992</v>
       </c>
       <c r="I27" s="1">
-        <v>0.87549999999999994</v>
+        <v>0.87539999999999996</v>
       </c>
       <c r="J27" s="1">
-        <v>0.73099999999999998</v>
+        <v>0.73219999999999996</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>0.89434444444444439</v>
+        <v>0.89359999999999984</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>0.93410000000000004</v>
+        <v>0.9325</v>
       </c>
       <c r="C28" s="1">
-        <v>0.92900000000000005</v>
+        <v>0.93010000000000004</v>
       </c>
       <c r="D28" s="1">
-        <v>0.92889999999999995</v>
+        <v>0.92610000000000003</v>
       </c>
       <c r="E28" s="1">
-        <v>0.92720000000000002</v>
+        <v>0.92290000000000005</v>
       </c>
       <c r="F28" s="1">
-        <v>0.92320000000000002</v>
+        <v>0.91769999999999996</v>
       </c>
       <c r="G28" s="1">
-        <v>0.92249999999999999</v>
+        <v>0.91269999999999996</v>
       </c>
       <c r="H28" s="1">
-        <v>0.91579999999999995</v>
+        <v>0.90059999999999996</v>
       </c>
       <c r="I28" s="1">
-        <v>0.90739999999999998</v>
+        <v>0.87549999999999994</v>
       </c>
       <c r="J28" s="1">
-        <v>0.88109999999999999</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.91880000000000017</v>
+        <v>0.89434444444444439</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
         <v>0.93410000000000004</v>
       </c>
       <c r="C29" s="1">
-        <v>0.92949999999999999</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="D29" s="1">
-        <v>0.92949999999999999</v>
+        <v>0.92889999999999995</v>
       </c>
       <c r="E29" s="1">
-        <v>0.9264</v>
+        <v>0.92720000000000002</v>
       </c>
       <c r="F29" s="1">
         <v>0.92320000000000002</v>
       </c>
       <c r="G29" s="1">
-        <v>0.92100000000000004</v>
+        <v>0.92249999999999999</v>
       </c>
       <c r="H29" s="1">
-        <v>0.91320000000000001</v>
+        <v>0.91579999999999995</v>
       </c>
       <c r="I29" s="1">
-        <v>0.89929999999999999</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="J29" s="1">
-        <v>0.84699999999999998</v>
+        <v>0.88109999999999999</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.91368888888888888</v>
+        <v>0.91880000000000017</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>0.93579999999999997</v>
+        <v>0.93410000000000004</v>
       </c>
       <c r="C30" s="1">
-        <v>0.93189999999999995</v>
+        <v>0.92949999999999999</v>
       </c>
       <c r="D30" s="1">
-        <v>0.93120000000000003</v>
+        <v>0.92949999999999999</v>
       </c>
       <c r="E30" s="1">
-        <v>0.92889999999999995</v>
+        <v>0.9264</v>
       </c>
       <c r="F30" s="1">
-        <v>0.92449999999999999</v>
+        <v>0.92320000000000002</v>
       </c>
       <c r="G30" s="1">
-        <v>0.92120000000000002</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="H30" s="1">
-        <v>0.91239999999999999</v>
+        <v>0.91320000000000001</v>
       </c>
       <c r="I30" s="1">
-        <v>0.89500000000000002</v>
+        <v>0.89929999999999999</v>
       </c>
       <c r="J30" s="1">
-        <v>0.84350000000000003</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.91382222222222209</v>
+        <v>0.91368888888888888</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>0.93469999999999998</v>
+        <v>0.93579999999999997</v>
       </c>
       <c r="C31" s="1">
-        <v>0.93159999999999998</v>
+        <v>0.93189999999999995</v>
       </c>
       <c r="D31" s="1">
-        <v>0.93049999999999999</v>
+        <v>0.93120000000000003</v>
       </c>
       <c r="E31" s="1">
-        <v>0.92789999999999995</v>
+        <v>0.92889999999999995</v>
       </c>
       <c r="F31" s="1">
-        <v>0.92230000000000001</v>
+        <v>0.92449999999999999</v>
       </c>
       <c r="G31" s="1">
-        <v>0.91800000000000004</v>
+        <v>0.92120000000000002</v>
       </c>
       <c r="H31" s="1">
-        <v>0.90690000000000004</v>
+        <v>0.91239999999999999</v>
       </c>
       <c r="I31" s="1">
-        <v>0.88449999999999995</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="J31" s="1">
-        <v>0.8306</v>
+        <v>0.84350000000000003</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.90966666666666662</v>
+        <v>0.91382222222222209</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
-        <v>0.93640000000000001</v>
+        <v>0.93469999999999998</v>
       </c>
       <c r="C32" s="1">
-        <v>0.93240000000000001</v>
+        <v>0.93159999999999998</v>
       </c>
       <c r="D32" s="1">
-        <v>0.93120000000000003</v>
+        <v>0.93049999999999999</v>
       </c>
       <c r="E32" s="1">
-        <v>0.92769999999999997</v>
+        <v>0.92789999999999995</v>
       </c>
       <c r="F32" s="1">
-        <v>0.92049999999999998</v>
+        <v>0.92230000000000001</v>
       </c>
       <c r="G32" s="1">
-        <v>0.91490000000000005</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="H32" s="1">
-        <v>0.90090000000000003</v>
+        <v>0.90690000000000004</v>
       </c>
       <c r="I32" s="1">
-        <v>0.87580000000000002</v>
+        <v>0.88449999999999995</v>
       </c>
       <c r="J32" s="1">
-        <v>0.82350000000000001</v>
+        <v>0.8306</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.90703333333333325</v>
+        <v>0.90966666666666662</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.93120000000000003</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90703333333333325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>0.9375</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>0.93389999999999995</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>0.93289999999999995</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>0.93020000000000003</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>0.9254</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
         <v>0.92090000000000005</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H34" s="1">
         <v>0.91110000000000002</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I34" s="1">
         <v>0.8921</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34" s="1">
         <v>0.83960000000000001</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="0"/>
         <v>0.91373333333333351</v>
       </c>
@@ -10939,10 +11225,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8A42B3-E71A-4089-B0F9-46956E1D2CB1}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10988,7 +11274,7 @@
         <v>0.91451111111111105</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D33" si="0">(B3*C3)/(B3+C3)</f>
+        <f t="shared" ref="D3:D34" si="0">(B3*C3)/(B3+C3)</f>
         <v>3.0357661044025753E-2</v>
       </c>
     </row>
@@ -11283,109 +11569,109 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1">
         <f>Precision!K21</f>
-        <v>3.1244444444444446E-2</v>
+        <v>1.2333333333333335E-2</v>
       </c>
       <c r="C21" s="1">
         <f>Recall!K21</f>
-        <v>0.91627777777777786</v>
+        <v>0.92523333333333335</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>3.021416221385733E-2</v>
+        <v>1.2171093018570533E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
         <f>Precision!K22</f>
-        <v>3.1366666666666668E-2</v>
+        <v>3.1244444444444446E-2</v>
       </c>
       <c r="C22" s="1">
         <f>Recall!K22</f>
-        <v>0.914688888888889</v>
+        <v>0.91627777777777786</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>3.0326698377277979E-2</v>
+        <v>3.021416221385733E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
         <f>Precision!K23</f>
-        <v>3.8033333333333336E-2</v>
+        <v>3.1366666666666668E-2</v>
       </c>
       <c r="C23" s="1">
         <f>Recall!K23</f>
-        <v>0.90862222222222222</v>
+        <v>0.914688888888889</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>3.6505286055783126E-2</v>
+        <v>3.0326698377277979E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
         <f>Precision!K24</f>
-        <v>3.4866666666666671E-2</v>
+        <v>3.8033333333333336E-2</v>
       </c>
       <c r="C24" s="1">
         <f>Recall!K24</f>
-        <v>0.90939999999999999</v>
+        <v>0.90862222222222222</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>3.357922903134708E-2</v>
+        <v>3.6505286055783126E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <f>Precision!K25</f>
-        <v>3.4833333333333334E-2</v>
+        <v>3.4866666666666671E-2</v>
       </c>
       <c r="C25" s="1">
         <f>Recall!K25</f>
-        <v>0.91095555555555541</v>
+        <v>0.90939999999999999</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>3.3550424297960159E-2</v>
+        <v>3.357922903134708E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <f>Precision!K26</f>
-        <v>3.8144444444444446E-2</v>
+        <v>3.4833333333333334E-2</v>
       </c>
       <c r="C26" s="1">
         <f>Recall!K26</f>
-        <v>0.89359999999999984</v>
+        <v>0.91095555555555541</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>3.6582858914580775E-2</v>
+        <v>3.3550424297960159E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <f>Precision!K27</f>
@@ -11393,111 +11679,128 @@
       </c>
       <c r="C27" s="1">
         <f>Recall!K27</f>
-        <v>0.89434444444444439</v>
+        <v>0.89359999999999984</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>3.6584105592890923E-2</v>
+        <v>3.6582858914580775E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <f>Precision!K28</f>
-        <v>3.067777777777778E-2</v>
+        <v>3.8144444444444446E-2</v>
       </c>
       <c r="C28" s="1">
         <f>Recall!K28</f>
-        <v>0.91880000000000017</v>
+        <v>0.89434444444444439</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>2.9686573906123833E-2</v>
+        <v>3.6584105592890923E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
         <f>Precision!K29</f>
-        <v>3.1055555555555558E-2</v>
+        <v>3.067777777777778E-2</v>
       </c>
       <c r="C29" s="1">
         <f>Recall!K29</f>
-        <v>0.91368888888888888</v>
+        <v>0.91880000000000017</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>3.003470008872999E-2</v>
+        <v>2.9686573906123833E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
         <f>Precision!K30</f>
-        <v>3.1322222222222224E-2</v>
+        <v>3.1055555555555558E-2</v>
       </c>
       <c r="C30" s="1">
         <f>Recall!K30</f>
-        <v>0.91382222222222209</v>
+        <v>0.91368888888888888</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>3.0284199292811734E-2</v>
+        <v>3.003470008872999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
         <f>Precision!K31</f>
-        <v>3.1366666666666668E-2</v>
+        <v>3.1322222222222224E-2</v>
       </c>
       <c r="C31" s="1">
         <f>Recall!K31</f>
-        <v>0.90966666666666662</v>
+        <v>0.91382222222222209</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>3.0321148146836219E-2</v>
+        <v>3.0284199292811734E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
         <f>Precision!K32</f>
-        <v>3.121111111111111E-2</v>
+        <v>3.1366666666666668E-2</v>
       </c>
       <c r="C32" s="1">
         <f>Recall!K32</f>
-        <v>0.90703333333333325</v>
+        <v>0.90966666666666662</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>3.0172859872259462E-2</v>
+        <v>3.0321148146836219E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1">
         <f>Precision!K33</f>
-        <v>3.1222222222222221E-2</v>
+        <v>3.121111111111111E-2</v>
       </c>
       <c r="C33" s="1">
         <f>Recall!K33</f>
+        <v>0.90703333333333325</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0172859872259462E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1">
+        <f>Precision!K34</f>
+        <v>3.1222222222222221E-2</v>
+      </c>
+      <c r="C34" s="1">
+        <f>Recall!K34</f>
         <v>0.91373333333333351</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="2">
         <f t="shared" si="0"/>
         <v>3.0190610571533834E-2</v>
       </c>
@@ -11514,7 +11817,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11566,23 +11869,23 @@
         <v>26</v>
       </c>
       <c r="B3" s="1">
-        <f>MAE!K25</f>
+        <f>MAE!K26</f>
         <v>0.75438888888888878</v>
       </c>
       <c r="C3" s="1">
-        <f>MSE!K25</f>
+        <f>MSE!K26</f>
         <v>0.92596666666666672</v>
       </c>
       <c r="D3" s="1">
-        <f>1-('R'!K25)</f>
+        <f>1-('R'!K26)</f>
         <v>0.61838888888888888</v>
       </c>
       <c r="E3" s="1">
-        <f>1-(Precision!K25)</f>
+        <f>1-(Precision!K26)</f>
         <v>0.96516666666666662</v>
       </c>
       <c r="F3" s="1">
-        <f>1-(Recall!K25)</f>
+        <f>1-(Recall!K26)</f>
         <v>8.9044444444444593E-2</v>
       </c>
     </row>
@@ -11591,23 +11894,23 @@
         <v>36</v>
       </c>
       <c r="B4" s="1">
-        <f>MAE!K28</f>
+        <f>MAE!K29</f>
         <v>0.76116666666666666</v>
       </c>
       <c r="C4" s="1">
-        <f>MSE!K28</f>
+        <f>MSE!K29</f>
         <v>0.93643333333333323</v>
       </c>
       <c r="D4" s="1">
-        <f>1-('R'!K28)</f>
+        <f>1-('R'!K29)</f>
         <v>0.62628888888888889</v>
       </c>
       <c r="E4" s="1">
-        <f>1-(Precision!K28)</f>
+        <f>1-(Precision!K29)</f>
         <v>0.9693222222222222</v>
       </c>
       <c r="F4" s="1">
-        <f>1-(Recall!K28)</f>
+        <f>1-(Recall!K29)</f>
         <v>8.1199999999999828E-2</v>
       </c>
     </row>

--- a/2_design/asim/artifacts/testing/analyze-item.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630E0E5C-96E1-4F5D-A694-82C9FB83D9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5530299-DDC8-4405-A1E7-AEE496F8E794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="6" r:id="rId1"/>
@@ -474,7 +474,7 @@
                   <c:v>0.83805555555555555</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.826988888888889</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.75811111111111118</c:v>
@@ -911,7 +911,7 @@
                   <c:v>2.9442886263460658E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2171093018570533E-2</c:v>
+                  <c:v>3.3183089020949644E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3.021416221385733E-2</c:v>
@@ -3758,7 +3758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F415299B-7611-4776-90FA-43332039FA40}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -4484,18 +4484,36 @@
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B21" s="1">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.8044</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.81720000000000004</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.84060000000000001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.826988888888889</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4977,8 +4995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845ED3B-1C35-4974-BD89-89002EC8961B}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5782,22 +5800,40 @@
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="1" t="e">
+      <c r="B21" s="1">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.0148999999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.0472999999999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.0819000000000001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.1454</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.2585</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.5677000000000001</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1144444444444443</v>
+      </c>
+      <c r="L21" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.0556725081408742</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -6343,7 +6379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10484FF-0F81-4946-89C5-3E5AAAADF83E}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -7069,18 +7105,36 @@
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B21" s="1">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.35449999999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.3518</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.34310000000000002</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.26979999999999998</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31620000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -8287,18 +8341,36 @@
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B21" s="1">
+        <v>0.2555</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.29720000000000002</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.26679999999999998</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.21929999999999999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.2001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.1041</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22109999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -8779,8 +8851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD571D8-A6EF-4FD2-AC2E-36D5484BA4FE}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9514,15 +9586,27 @@
       <c r="D21" s="1">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="E21" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>8.5400000000000004E-2</v>
+      </c>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>1.2333333333333335E-2</v>
+        <v>3.4466666666666673E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -10003,8 +10087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037ECD2-FD94-4DA2-BE1D-F9E27FEA143C}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10738,15 +10822,27 @@
       <c r="D21" s="1">
         <v>0.92269999999999996</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="E21" s="1">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.75249999999999995</v>
+      </c>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>0.92523333333333335</v>
+        <v>0.89103333333333323</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -11228,7 +11324,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11573,15 +11669,15 @@
       </c>
       <c r="B21" s="1">
         <f>Precision!K21</f>
-        <v>1.2333333333333335E-2</v>
+        <v>3.4466666666666673E-2</v>
       </c>
       <c r="C21" s="1">
         <f>Recall!K21</f>
-        <v>0.92523333333333335</v>
+        <v>0.89103333333333323</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>1.2171093018570533E-2</v>
+        <v>3.3183089020949644E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">

--- a/2_design/asim/artifacts/testing/analyze-item.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993FA583-F2E4-4CC6-8B0A-D7670932E132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EE7F4C-1593-4187-89F6-5E6EA5AEF912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="8" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="6" r:id="rId1"/>
@@ -1026,19 +1026,19 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>3.3578804714597364E-2</c:v>
+                  <c:v>6.7157609429194728E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0357661044025753E-2</c:v>
+                  <c:v>6.0715322088051506E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6691981940273115E-2</c:v>
+                  <c:v>7.338396388054623E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.350109702878732E-2</c:v>
+                  <c:v>6.7002194057574641E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3570978930151388E-2</c:v>
+                  <c:v>6.7141957860302776E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1047,16 +1047,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6513167742264131E-2</c:v>
+                  <c:v>7.3026335484528263E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6667567860340436E-2</c:v>
+                  <c:v>7.3335135720680872E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6544987770912786E-2</c:v>
+                  <c:v>7.3089975541825572E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6536370854503286E-2</c:v>
+                  <c:v>7.3072741709006572E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1065,19 +1065,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0214041383731891E-2</c:v>
+                  <c:v>6.0428082767463781E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3579107826523569E-2</c:v>
+                  <c:v>6.7158215653047137E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3560716835772345E-2</c:v>
+                  <c:v>6.7121433671544689E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.7492316352378277E-2</c:v>
+                  <c:v>7.4984632704756554E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -1092,19 +1092,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3538049570698454E-2</c:v>
+                  <c:v>6.7076099141396908E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.9906690482402441E-2</c:v>
+                  <c:v>5.9813380964804881E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.3843793470341894E-2</c:v>
+                  <c:v>6.7687586940683789E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.4145070540311316E-2</c:v>
+                  <c:v>6.8290141080622632E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.3535323828952593E-2</c:v>
+                  <c:v>6.7070647657905186E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -1116,25 +1116,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9442886263460658E-2</c:v>
+                  <c:v>5.8885772526921315E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3183089020949644E-2</c:v>
+                  <c:v>6.6366178041899287E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.021416221385733E-2</c:v>
+                  <c:v>6.0428324427714661E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.0326698377277979E-2</c:v>
+                  <c:v>6.0653396754555958E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.6505286055783126E-2</c:v>
+                  <c:v>7.3010572111566252E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.357922903134708E-2</c:v>
+                  <c:v>6.715845806269416E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.3550424297960159E-2</c:v>
+                  <c:v>6.7100848595920318E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -1143,28 +1143,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.6582858914580775E-2</c:v>
+                  <c:v>7.316571782916155E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.6584105592890923E-2</c:v>
+                  <c:v>7.3168211185781845E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.9686573906123833E-2</c:v>
+                  <c:v>5.9373147812247666E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.003470008872999E-2</c:v>
+                  <c:v>6.0069400177459979E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.0284199292811734E-2</c:v>
+                  <c:v>6.0568398585623469E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.0321148146836219E-2</c:v>
+                  <c:v>6.0642296293672439E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.0172859872259462E-2</c:v>
+                  <c:v>6.0345719744518925E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.0190610571533834E-2</c:v>
+                  <c:v>6.0381221143067668E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3972,7 +3972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F415299B-7611-4776-90FA-43332039FA40}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -13190,7 +13190,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13219,8 +13219,8 @@
         <v>0.90908888888888884</v>
       </c>
       <c r="D2" s="2">
-        <f>(B2*C2)/(B2+C2)</f>
-        <v>3.3578804714597364E-2</v>
+        <f>2*(B2*C2)/(B2+C2)</f>
+        <v>6.7157609429194728E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13236,8 +13236,8 @@
         <v>0.91451111111111105</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D48" si="0">(B3*C3)/(B3+C3)</f>
-        <v>3.0357661044025753E-2</v>
+        <f>2*(B3*C3)/(B3+C3)</f>
+        <v>6.0715322088051506E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13253,8 +13253,8 @@
         <v>0.89773333333333327</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6691981940273115E-2</v>
+        <f>2*(B4*C4)/(B4+C4)</f>
+        <v>7.338396388054623E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13270,8 +13270,8 @@
         <v>0.90501111111111099</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.350109702878732E-2</v>
+        <f>2*(B5*C5)/(B5+C5)</f>
+        <v>6.7002194057574641E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -13287,8 +13287,8 @@
         <v>0.91091111111111112</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3570978930151388E-2</v>
+        <f>2*(B6*C6)/(B6+C6)</f>
+        <v>6.7141957860302776E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -13304,7 +13304,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D7" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>2*(B7*C7)/(B7+C7)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13321,7 +13321,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D8" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>2*(B8*C8)/(B8+C8)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13338,8 +13338,8 @@
         <v>0.90716666666666668</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6513167742264131E-2</v>
+        <f>2*(B9*C9)/(B9+C9)</f>
+        <v>7.3026335484528263E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -13355,8 +13355,8 @@
         <v>0.9077222222222221</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6667567860340436E-2</v>
+        <f>2*(B10*C10)/(B10+C10)</f>
+        <v>7.3335135720680872E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -13372,8 +13372,8 @@
         <v>0.90785555555555553</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6544987770912786E-2</v>
+        <f>2*(B11*C11)/(B11+C11)</f>
+        <v>7.3089975541825572E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -13389,8 +13389,8 @@
         <v>0.90885555555555564</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6536370854503286E-2</v>
+        <f>2*(B12*C12)/(B12+C12)</f>
+        <v>7.3072741709006572E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -13406,7 +13406,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D13" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>2*(B13*C13)/(B13+C13)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13423,7 +13423,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D14" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>2*(B14*C14)/(B14+C14)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13440,8 +13440,8 @@
         <v>0.91616666666666668</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0214041383731891E-2</v>
+        <f>2*(B15*C15)/(B15+C15)</f>
+        <v>6.0428082767463781E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13457,7 +13457,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D16" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>2*(B16*C16)/(B16+C16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13474,8 +13474,8 @@
         <v>0.90931111111111107</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3579107826523569E-2</v>
+        <f>2*(B17*C17)/(B17+C17)</f>
+        <v>6.7158215653047137E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -13491,8 +13491,8 @@
         <v>0.91094444444444433</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3560716835772345E-2</v>
+        <f>2*(B18*C18)/(B18+C18)</f>
+        <v>6.7121433671544689E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -13508,8 +13508,8 @@
         <v>0.31269999999999998</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>3.7492316352378277E-2</v>
+        <f>2*(B19*C19)/(B19+C19)</f>
+        <v>7.4984632704756554E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -13525,7 +13525,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D20" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>2*(B20*C20)/(B20+C20)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13542,7 +13542,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D21" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>2*(B21*C21)/(B21+C21)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13559,7 +13559,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D22" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>2*(B22*C22)/(B22+C22)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13576,7 +13576,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D23" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>2*(B23*C23)/(B23+C23)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13593,8 +13593,8 @@
         <v>0.90943333333333343</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3538049570698454E-2</v>
+        <f>2*(B24*C24)/(B24+C24)</f>
+        <v>6.7076099141396908E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -13610,8 +13610,8 @@
         <v>0.89177777777777778</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9906690482402441E-2</v>
+        <f>2*(B25*C25)/(B25+C25)</f>
+        <v>5.9813380964804881E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -13627,8 +13627,8 @@
         <v>0.90702222222222217</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3843793470341894E-2</v>
+        <f>2*(B26*C26)/(B26+C26)</f>
+        <v>6.7687586940683789E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -13644,8 +13644,8 @@
         <v>0.89462222222222232</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4145070540311316E-2</v>
+        <f>2*(B27*C27)/(B27+C27)</f>
+        <v>6.8290141080622632E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -13661,8 +13661,8 @@
         <v>0.90743333333333331</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3535323828952593E-2</v>
+        <f>2*(B28*C28)/(B28+C28)</f>
+        <v>6.7070647657905186E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -13678,7 +13678,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D29" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>2*(B29*C29)/(B29+C29)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13695,7 +13695,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D30" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>2*(B30*C30)/(B30+C30)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13712,7 +13712,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>2*(B31*C31)/(B31+C31)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13729,8 +13729,8 @@
         <v>0.89497777777777776</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9442886263460658E-2</v>
+        <f>2*(B32*C32)/(B32+C32)</f>
+        <v>5.8885772526921315E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -13746,8 +13746,8 @@
         <v>0.89103333333333323</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3183089020949644E-2</v>
+        <f>2*(B33*C33)/(B33+C33)</f>
+        <v>6.6366178041899287E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -13763,8 +13763,8 @@
         <v>0.91627777777777786</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>3.021416221385733E-2</v>
+        <f>2*(B34*C34)/(B34+C34)</f>
+        <v>6.0428324427714661E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -13780,8 +13780,8 @@
         <v>0.914688888888889</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0326698377277979E-2</v>
+        <f>2*(B35*C35)/(B35+C35)</f>
+        <v>6.0653396754555958E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -13797,8 +13797,8 @@
         <v>0.90862222222222222</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6505286055783126E-2</v>
+        <f>2*(B36*C36)/(B36+C36)</f>
+        <v>7.3010572111566252E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -13814,8 +13814,8 @@
         <v>0.90939999999999999</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="0"/>
-        <v>3.357922903134708E-2</v>
+        <f>2*(B37*C37)/(B37+C37)</f>
+        <v>6.715845806269416E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -13831,8 +13831,8 @@
         <v>0.91095555555555541</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3550424297960159E-2</v>
+        <f>2*(B38*C38)/(B38+C38)</f>
+        <v>6.7100848595920318E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -13848,7 +13848,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D39" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>2*(B39*C39)/(B39+C39)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13865,7 +13865,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D40" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>2*(B40*C40)/(B40+C40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13882,8 +13882,8 @@
         <v>0.89359999999999984</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6582858914580775E-2</v>
+        <f>2*(B41*C41)/(B41+C41)</f>
+        <v>7.316571782916155E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -13899,8 +13899,8 @@
         <v>0.89434444444444439</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6584105592890923E-2</v>
+        <f>2*(B42*C42)/(B42+C42)</f>
+        <v>7.3168211185781845E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -13916,8 +13916,8 @@
         <v>0.91880000000000017</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9686573906123833E-2</v>
+        <f>2*(B43*C43)/(B43+C43)</f>
+        <v>5.9373147812247666E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -13933,8 +13933,8 @@
         <v>0.91368888888888888</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="0"/>
-        <v>3.003470008872999E-2</v>
+        <f>2*(B44*C44)/(B44+C44)</f>
+        <v>6.0069400177459979E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -13950,8 +13950,8 @@
         <v>0.91382222222222209</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0284199292811734E-2</v>
+        <f>2*(B45*C45)/(B45+C45)</f>
+        <v>6.0568398585623469E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -13967,8 +13967,8 @@
         <v>0.90966666666666662</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0321148146836219E-2</v>
+        <f>2*(B46*C46)/(B46+C46)</f>
+        <v>6.0642296293672439E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -13984,8 +13984,8 @@
         <v>0.90703333333333325</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0172859872259462E-2</v>
+        <f>2*(B47*C47)/(B47+C47)</f>
+        <v>6.0345719744518925E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -14001,8 +14001,8 @@
         <v>0.91373333333333351</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0190610571533834E-2</v>
+        <f>2*(B48*C48)/(B48+C48)</f>
+        <v>6.0381221143067668E-2</v>
       </c>
     </row>
   </sheetData>
@@ -14125,7 +14125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC38EB74-FD36-40CA-8AA3-431DE40DAC76}">
   <dimension ref="B1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
